--- a/upload_seed_data/data/origins/new/{Japan}.{NAT_23961}.{ja}.xlsx
+++ b/upload_seed_data/data/origins/new/{Japan}.{NAT_23961}.{ja}.xlsx
@@ -80,7 +80,7 @@
     <t>Snapdragon® 8 Gen 3 Mobile Platform for Galaxy</t>
   </si>
   <si>
-    <t>MULTI_CHOICE</t>
+    <t>SINGLE_CHOICE</t>
   </si>
   <si>
     <t>Snapdragon® 8 Elite</t>
@@ -89,6 +89,9 @@
     <t>Snapdragon® 8 Elite for Galaxy</t>
   </si>
   <si>
+    <t>Snapdragon® 8 Gen 3</t>
+  </si>
+  <si>
     <t>Design/Color</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
   </si>
   <si>
     <t>S25: 8GB , S25 Ultra:8GB</t>
-  </si>
-  <si>
-    <t>SINGLE_CHOICE</t>
   </si>
   <si>
     <t>S25: 8GB , S25 Ultra:12GB</t>
@@ -480,6 +480,9 @@
     <t>チャット・アシスト</t>
   </si>
   <si>
+    <t>MULTI_CHOICE</t>
+  </si>
+  <si>
     <t>クロスアプリ・アクション</t>
   </si>
   <si>
@@ -1434,7 +1437,7 @@
     <t>はい</t>
   </si>
   <si>
-    <t>TURE_FALSE</t>
+    <t>TRUE_FALSE</t>
   </si>
   <si>
     <t>いいえ</t>
@@ -1543,7 +1546,7 @@
     <t>Now Check</t>
   </si>
   <si>
-    <t>友達と話すような日常会話で、様々な情報を得たりタスクを解決することが出来る機能はなんでしょか？</t>
+    <t>友達と話すような日常会話で、様々な情報を得たりタスクを解決することが出来る機能はなんでしょうか？</t>
   </si>
   <si>
     <t>AI Live</t>
@@ -1558,7 +1561,7 @@
     <t>通話アシスト</t>
   </si>
   <si>
-    <t>Galaxy S25シリーズの前作対進化点ではないのはどれでしょうか？</t>
+    <t>Galaxy S25シリーズの進化点ではないのはどれでしょうか？</t>
   </si>
   <si>
     <t>ベイパーチャンバーのサイズUP</t>
@@ -1573,7 +1576,7 @@
     <t>バッテリー容量のUP</t>
   </si>
   <si>
-    <t>Now Briefで提供されない情報はなんでしょか？</t>
+    <t>Now Briefで提供されない情報はなんでしょうか？</t>
   </si>
   <si>
     <t>LINEの通知</t>
@@ -1633,7 +1636,7 @@
     <t>Corning® Gorilla® Glass Victus3</t>
   </si>
   <si>
-    <t>写真の左右バランス調整や被写体の移動・サイズを変更することが出来る機能は何でしょうか？</t>
+    <t>写真の傾き調整や被写体の移動・サイズを変更することが出来る機能は何でしょうか？</t>
   </si>
   <si>
     <t>ポートレートスタジオ</t>
@@ -1672,7 +1675,7 @@
     <t>最大2億画素撮影</t>
   </si>
   <si>
-    <t>Galaxy S25の説明で間違えたのはどれでしょうか？</t>
+    <t>Galaxy S25の説明で間違えているものはどれでしょうか？</t>
   </si>
   <si>
     <t>Pro Scalerにより、鮮明度を最大化したディスプレイ体験ができる</t>
@@ -1684,13 +1687,10 @@
     <t>前作より15％大きくなったベイパーチャンバーを搭載した</t>
   </si>
   <si>
-    <t>ディスプレイ素材でCorning® Gorilla® Armor2を採用した</t>
-  </si>
-  <si>
-    <t>オーディオ消しゴムで消せるのはどれでしょうか？</t>
-  </si>
-  <si>
-    <t>風邪</t>
+    <t>ディスプレイ素材でCorning® Gorilla® Glass Victus2を採用した</t>
+  </si>
+  <si>
+    <t>オーディオ消しゴムで編集できる音はどれでしょうか？</t>
   </si>
   <si>
     <t>音声</t>
@@ -1711,7 +1711,7 @@
     <t>S25: 6.4インチ , S25 Ultra:7.6インチ</t>
   </si>
   <si>
-    <t>Galaxy S25 Ultraのカメラのメリットではないのはどれでしょうか？</t>
+    <t>Galaxy S25 Ultraならではのカメラメリットではないのはどれでしょうか？</t>
   </si>
   <si>
     <t>マクロ撮影</t>
@@ -1732,7 +1732,7 @@
     <t>洋服</t>
   </si>
   <si>
-    <t>Galaxy S25 Ultraの耐久性の説明で間違えたのはどれでしょうか？</t>
+    <t>Galaxy S25 Ultraの耐久性の説明で間違えているものはどれでしょうか？</t>
   </si>
   <si>
     <t>前面素材：Corning® Gorilla® Armor2</t>
@@ -1841,7 +1841,7 @@
     <t>5,000万画素</t>
   </si>
   <si>
-    <t>Galaxy S25シリーズはMicro SDの追加が可能ですか？</t>
+    <t>Galaxy S25シリーズはMicro SDの内蔵が可能ですか？</t>
   </si>
   <si>
     <t>可能</t>
@@ -1850,7 +1850,7 @@
     <t>不可能</t>
   </si>
   <si>
-    <t>Gemini Liveの起動方法は何でしょうか？</t>
+    <t>Gemini Liveの利用方法は何でしょうか？</t>
   </si>
   <si>
     <t>サイドボタン2回押し &amp; 音声命令</t>
@@ -2005,7 +2005,7 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
@@ -2022,7 +2022,7 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2039,7 +2039,7 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Tahoma"/>
     </font>
     <font>
@@ -2060,11 +2060,11 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="맑은 고딕"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2097,18 +2097,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2141,7 +2135,37 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2162,6 +2186,21 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -2171,15 +2210,15 @@
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2205,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2214,28 +2253,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2244,25 +2283,25 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2274,10 +2313,10 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2289,25 +2328,16 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2340,18 +2370,18 @@
       <rgbColor rgb="ff92d050"/>
       <rgbColor rgb="ff00b0f0"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00b050"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office Theme">
+    <a:clrScheme name="Office 테마">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -2389,7 +2419,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office Theme">
+    <a:fontScheme name="Office 테마">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -2401,7 +2431,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office Theme">
+    <a:fmtScheme name="Office 테마">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3551,7 +3581,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="17"/>
       <c r="L5" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="12">
         <v>0</v>
@@ -3571,11 +3601,11 @@
         <v>16</v>
       </c>
       <c r="D6" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s" s="8">
         <v>19</v>
@@ -3590,10 +3620,10 @@
         <v>2</v>
       </c>
       <c r="K6" t="s" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="12">
         <v>0</v>
@@ -3621,7 +3651,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
       <c r="L7" t="s" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="12">
         <v>0</v>
@@ -3643,7 +3673,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
       <c r="L8" t="s" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="12">
         <v>0</v>
@@ -3665,7 +3695,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
       <c r="L9" t="s" s="15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="12">
         <v>1</v>
@@ -3704,10 +3734,10 @@
         <v>3</v>
       </c>
       <c r="K10" t="s" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="12">
         <v>0</v>
@@ -3719,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="P10" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -3803,7 +3833,7 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s" s="8">
         <v>19</v>
@@ -3833,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="P14" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -3917,7 +3947,7 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s" s="8">
         <v>19</v>
@@ -3947,7 +3977,7 @@
         <v>5</v>
       </c>
       <c r="P18" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -3988,7 +4018,7 @@
         <v>46</v>
       </c>
       <c r="M20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -4059,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
@@ -4171,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="P26" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
@@ -4281,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
@@ -4389,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1">
@@ -4497,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="P38" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1">
@@ -4537,7 +4567,7 @@
       </c>
       <c r="E40" s="34"/>
       <c r="F40" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s" s="33">
         <v>19</v>
@@ -4563,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="P40" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -4673,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="P44" t="s" s="33">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
@@ -4689,7 +4719,7 @@
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" t="s" s="35">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M45" s="36">
         <v>1</v>
@@ -4711,7 +4741,7 @@
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
       <c r="L46" t="s" s="35">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M46" s="36">
         <v>1</v>
@@ -4733,7 +4763,7 @@
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" t="s" s="35">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M47" s="36">
         <v>1</v>
@@ -4753,7 +4783,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s" s="33">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="34"/>
       <c r="F48" t="s" s="33">
@@ -4768,10 +4798,10 @@
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
       <c r="K48" t="s" s="33">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L48" t="s" s="35">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M48" s="36">
         <v>1</v>
@@ -4783,7 +4813,7 @@
         <v>5</v>
       </c>
       <c r="P48" t="s" s="33">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
@@ -4799,7 +4829,7 @@
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
       <c r="L49" t="s" s="35">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M49" s="36">
         <v>1</v>
@@ -4821,7 +4851,7 @@
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
       <c r="L50" t="s" s="37">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M50" s="36">
         <v>0</v>
@@ -4843,7 +4873,7 @@
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
       <c r="L51" t="s" s="35">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M51" s="36">
         <v>1</v>
@@ -4867,7 +4897,7 @@
       </c>
       <c r="E52" s="34"/>
       <c r="F52" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G52" t="s" s="33">
         <v>19</v>
@@ -4878,10 +4908,10 @@
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
       <c r="K52" t="s" s="33">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="37">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M52" s="36">
         <v>0</v>
@@ -4893,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
@@ -4909,7 +4939,7 @@
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
       <c r="L53" t="s" s="37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M53" s="36">
         <v>0</v>
@@ -4931,7 +4961,7 @@
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
       <c r="L54" t="s" s="37">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M54" s="36">
         <v>0</v>
@@ -4953,7 +4983,7 @@
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
       <c r="L55" t="s" s="35">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M55" s="36">
         <v>1</v>
@@ -4973,7 +5003,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s" s="33">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="34"/>
       <c r="F56" t="s" s="33">
@@ -4988,10 +5018,10 @@
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" t="s" s="33">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L56" t="s" s="35">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M56" s="36">
         <v>1</v>
@@ -5003,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="P56" t="s" s="33">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -5019,7 +5049,7 @@
       <c r="J57" s="26"/>
       <c r="K57" s="26"/>
       <c r="L57" t="s" s="37">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M57" s="36">
         <v>0</v>
@@ -5041,7 +5071,7 @@
       <c r="J58" s="26"/>
       <c r="K58" s="26"/>
       <c r="L58" t="s" s="35">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M58" s="36">
         <v>1</v>
@@ -5063,7 +5093,7 @@
       <c r="J59" s="28"/>
       <c r="K59" s="28"/>
       <c r="L59" t="s" s="35">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M59" s="36">
         <v>1</v>
@@ -5098,10 +5128,10 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" t="s" s="22">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="22">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M60" s="21">
         <v>0</v>
@@ -5113,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
@@ -5129,7 +5159,7 @@
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" t="s" s="22">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M61" s="21">
         <v>0</v>
@@ -5151,7 +5181,7 @@
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" t="s" s="30">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M62" s="21">
         <v>1</v>
@@ -5173,7 +5203,7 @@
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" t="s" s="22">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M63" s="21">
         <v>0</v>
@@ -5208,7 +5238,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" t="s" s="22">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="22">
         <v>52</v>
@@ -5223,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="P64" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
@@ -5239,7 +5269,7 @@
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" t="s" s="22">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M65" s="21">
         <v>0</v>
@@ -5261,7 +5291,7 @@
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
       <c r="L66" t="s" s="22">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M66" s="21">
         <v>0</v>
@@ -5316,10 +5346,10 @@
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
       <c r="K68" t="s" s="22">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L68" t="s" s="31">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M68" s="21">
         <v>0</v>
@@ -5331,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="P68" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
@@ -5347,7 +5377,7 @@
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" t="s" s="32">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M69" s="21">
         <v>1</v>
@@ -5369,7 +5399,7 @@
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
       <c r="L70" t="s" s="31">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M70" s="21">
         <v>0</v>
@@ -5391,7 +5421,7 @@
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
       <c r="L71" t="s" s="31">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M71" s="21">
         <v>0</v>
@@ -5411,7 +5441,7 @@
         <v>68</v>
       </c>
       <c r="D72" t="s" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -5424,14 +5454,14 @@
       <c r="I72" s="7">
         <v>1</v>
       </c>
-      <c r="J72" s="38">
+      <c r="J72" s="7">
         <v>6</v>
       </c>
       <c r="K72" t="s" s="10">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L72" t="s" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M72" s="12">
         <v>0</v>
@@ -5443,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
@@ -5456,10 +5486,10 @@
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="39"/>
+      <c r="J73" s="13"/>
       <c r="K73" s="14"/>
       <c r="L73" t="s" s="15">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M73" s="12">
         <v>1</v>
@@ -5478,10 +5508,10 @@
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
-      <c r="J74" s="39"/>
+      <c r="J74" s="13"/>
       <c r="K74" s="14"/>
       <c r="L74" t="s" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M74" s="12">
         <v>0</v>
@@ -5500,10 +5530,10 @@
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
-      <c r="J75" s="40"/>
+      <c r="J75" s="16"/>
       <c r="K75" s="17"/>
       <c r="L75" t="s" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M75" s="12">
         <v>0</v>
@@ -5523,7 +5553,7 @@
         <v>68</v>
       </c>
       <c r="D76" t="s" s="33">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
@@ -5536,10 +5566,10 @@
       <c r="I76" s="34"/>
       <c r="J76" s="34"/>
       <c r="K76" t="s" s="33">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L76" t="s" s="35">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M76" s="36">
         <v>1</v>
@@ -5551,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="P76" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="17" customHeight="1">
@@ -5567,7 +5597,7 @@
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
       <c r="L77" t="s" s="37">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M77" s="36">
         <v>0</v>
@@ -5602,10 +5632,10 @@
       <c r="I78" s="34"/>
       <c r="J78" s="34"/>
       <c r="K78" t="s" s="33">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L78" t="s" s="37">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M78" s="36">
         <v>0</v>
@@ -5613,11 +5643,11 @@
       <c r="N78" s="20">
         <v>2</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="38">
         <v>5</v>
       </c>
       <c r="P78" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -5633,7 +5663,7 @@
       <c r="J79" s="26"/>
       <c r="K79" s="26"/>
       <c r="L79" t="s" s="37">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M79" s="36">
         <v>0</v>
@@ -5655,7 +5685,7 @@
       <c r="J80" s="26"/>
       <c r="K80" s="26"/>
       <c r="L80" t="s" s="37">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M80" s="36">
         <v>0</v>
@@ -5712,10 +5742,10 @@
       <c r="I82" s="34"/>
       <c r="J82" s="34"/>
       <c r="K82" t="s" s="33">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L82" t="s" s="35">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M82" s="36">
         <v>1</v>
@@ -5727,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -5743,7 +5773,7 @@
       <c r="J83" s="26"/>
       <c r="K83" s="26"/>
       <c r="L83" t="s" s="37">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M83" s="36">
         <v>0</v>
@@ -5765,7 +5795,7 @@
       <c r="J84" s="26"/>
       <c r="K84" s="26"/>
       <c r="L84" t="s" s="37">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M84" s="36">
         <v>0</v>
@@ -5787,7 +5817,7 @@
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
       <c r="L85" t="s" s="37">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M85" s="36">
         <v>0</v>
@@ -5822,10 +5852,10 @@
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
       <c r="K86" t="s" s="33">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="35">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M86" s="36">
         <v>1</v>
@@ -5837,7 +5867,7 @@
         <v>2</v>
       </c>
       <c r="P86" t="s" s="33">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -5853,7 +5883,7 @@
       <c r="J87" s="26"/>
       <c r="K87" s="26"/>
       <c r="L87" t="s" s="37">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M87" s="36">
         <v>0</v>
@@ -5875,7 +5905,7 @@
       <c r="J88" s="26"/>
       <c r="K88" s="26"/>
       <c r="L88" t="s" s="35">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M88" s="36">
         <v>1</v>
@@ -5897,7 +5927,7 @@
       <c r="J89" s="28"/>
       <c r="K89" s="28"/>
       <c r="L89" t="s" s="37">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M89" s="36">
         <v>0</v>
@@ -5907,7 +5937,7 @@
       <c r="P89" s="28"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="42">
+      <c r="A90" s="39">
         <v>24</v>
       </c>
       <c r="B90" s="20">
@@ -5917,11 +5947,11 @@
         <v>16</v>
       </c>
       <c r="D90" t="s" s="33">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" s="34"/>
       <c r="F90" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s" s="33">
         <v>49</v>
@@ -5932,10 +5962,10 @@
       <c r="I90" s="34"/>
       <c r="J90" s="34"/>
       <c r="K90" t="s" s="33">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L90" t="s" s="37">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M90" s="36">
         <v>0</v>
@@ -5947,11 +5977,11 @@
         <v>3</v>
       </c>
       <c r="P90" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="43"/>
+      <c r="A91" s="40"/>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -5963,7 +5993,7 @@
       <c r="J91" s="26"/>
       <c r="K91" s="26"/>
       <c r="L91" t="s" s="35">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M91" s="36">
         <v>1</v>
@@ -5973,7 +6003,7 @@
       <c r="P91" s="26"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="43"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
@@ -5985,7 +6015,7 @@
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
       <c r="L92" t="s" s="37">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M92" s="36">
         <v>0</v>
@@ -5995,7 +6025,7 @@
       <c r="P92" s="26"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="44"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -6007,7 +6037,7 @@
       <c r="J93" s="28"/>
       <c r="K93" s="28"/>
       <c r="L93" t="s" s="37">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M93" s="36">
         <v>0</v>
@@ -6031,7 +6061,7 @@
       </c>
       <c r="E94" s="34"/>
       <c r="F94" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s" s="33">
         <v>49</v>
@@ -6042,10 +6072,10 @@
       <c r="I94" s="34"/>
       <c r="J94" s="34"/>
       <c r="K94" t="s" s="33">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L94" t="s" s="35">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M94" s="36">
         <v>1</v>
@@ -6057,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="P94" t="s" s="33">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
@@ -6073,7 +6103,7 @@
       <c r="J95" s="26"/>
       <c r="K95" s="26"/>
       <c r="L95" t="s" s="35">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M95" s="36">
         <v>1</v>
@@ -6095,7 +6125,7 @@
       <c r="J96" s="26"/>
       <c r="K96" s="26"/>
       <c r="L96" t="s" s="35">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M96" s="36">
         <v>1</v>
@@ -6117,7 +6147,7 @@
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
       <c r="L97" t="s" s="37">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M97" s="36">
         <v>0</v>
@@ -6152,7 +6182,7 @@
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
       <c r="K98" t="s" s="22">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L98" t="s" s="22">
         <v>53</v>
@@ -6167,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
@@ -6183,7 +6213,7 @@
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
       <c r="L99" t="s" s="22">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M99" s="21">
         <v>0</v>
@@ -6205,7 +6235,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
       <c r="L100" t="s" s="22">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M100" s="21">
         <v>0</v>
@@ -6262,10 +6292,10 @@
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
       <c r="K102" t="s" s="22">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L102" t="s" s="30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M102" s="21">
         <v>1</v>
@@ -6277,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="P102" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
@@ -6315,7 +6345,7 @@
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
       <c r="L104" t="s" s="22">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M104" s="21">
         <v>0</v>
@@ -6370,10 +6400,10 @@
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
       <c r="K106" t="s" s="22">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L106" t="s" s="31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M106" s="21">
         <v>0</v>
@@ -6385,7 +6415,7 @@
         <v>3</v>
       </c>
       <c r="P106" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
@@ -6401,7 +6431,7 @@
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
       <c r="L107" t="s" s="32">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M107" s="21">
         <v>1</v>
@@ -6423,7 +6453,7 @@
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
       <c r="L108" t="s" s="31">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M108" s="21">
         <v>0</v>
@@ -6445,7 +6475,7 @@
       <c r="J109" s="25"/>
       <c r="K109" s="25"/>
       <c r="L109" t="s" s="31">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M109" s="21">
         <v>0</v>
@@ -6455,7 +6485,7 @@
       <c r="P109" s="25"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="7">
+      <c r="A110" s="20">
         <v>29</v>
       </c>
       <c r="B110" s="20">
@@ -6465,7 +6495,7 @@
         <v>68</v>
       </c>
       <c r="D110" t="s" s="33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
@@ -6478,10 +6508,10 @@
       <c r="I110" s="34"/>
       <c r="J110" s="34"/>
       <c r="K110" t="s" s="33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L110" t="s" s="37">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M110" s="36">
         <v>0</v>
@@ -6493,11 +6523,11 @@
         <v>5</v>
       </c>
       <c r="P110" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="13"/>
+      <c r="A111" s="26"/>
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -6509,7 +6539,7 @@
       <c r="J111" s="26"/>
       <c r="K111" s="26"/>
       <c r="L111" t="s" s="37">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M111" s="36">
         <v>0</v>
@@ -6519,7 +6549,7 @@
       <c r="P111" s="26"/>
     </row>
     <row r="112" ht="17" customHeight="1">
-      <c r="A112" s="13"/>
+      <c r="A112" s="26"/>
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
@@ -6531,7 +6561,7 @@
       <c r="J112" s="26"/>
       <c r="K112" s="26"/>
       <c r="L112" t="s" s="37">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M112" s="36">
         <v>0</v>
@@ -6541,7 +6571,7 @@
       <c r="P112" s="26"/>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="16"/>
+      <c r="A113" s="28"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6563,7 +6593,7 @@
       <c r="P113" s="28"/>
     </row>
     <row r="114" ht="17" customHeight="1">
-      <c r="A114" s="7">
+      <c r="A114" s="20">
         <v>30</v>
       </c>
       <c r="B114" s="20">
@@ -6573,7 +6603,7 @@
         <v>68</v>
       </c>
       <c r="D114" t="s" s="33">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
@@ -6586,10 +6616,10 @@
       <c r="I114" s="34"/>
       <c r="J114" s="34"/>
       <c r="K114" t="s" s="33">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L114" t="s" s="37">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M114" s="36">
         <v>0</v>
@@ -6601,11 +6631,11 @@
         <v>1</v>
       </c>
       <c r="P114" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="17" customHeight="1">
-      <c r="A115" s="13"/>
+      <c r="A115" s="26"/>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
@@ -6617,7 +6647,7 @@
       <c r="J115" s="26"/>
       <c r="K115" s="26"/>
       <c r="L115" t="s" s="35">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M115" s="36">
         <v>1</v>
@@ -6627,7 +6657,7 @@
       <c r="P115" s="26"/>
     </row>
     <row r="116" ht="17" customHeight="1">
-      <c r="A116" s="13"/>
+      <c r="A116" s="26"/>
       <c r="B116" s="26"/>
       <c r="C116" s="26"/>
       <c r="D116" s="26"/>
@@ -6639,7 +6669,7 @@
       <c r="J116" s="26"/>
       <c r="K116" s="26"/>
       <c r="L116" t="s" s="37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M116" s="36">
         <v>0</v>
@@ -6649,7 +6679,7 @@
       <c r="P116" s="26"/>
     </row>
     <row r="117" ht="15.9" customHeight="1">
-      <c r="A117" s="16"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6661,7 +6691,7 @@
       <c r="J117" s="28"/>
       <c r="K117" s="28"/>
       <c r="L117" t="s" s="37">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M117" s="36">
         <v>0</v>
@@ -6671,7 +6701,7 @@
       <c r="P117" s="28"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="7">
+      <c r="A118" s="20">
         <v>31</v>
       </c>
       <c r="B118" s="20">
@@ -6681,11 +6711,11 @@
         <v>16</v>
       </c>
       <c r="D118" t="s" s="33">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E118" s="34"/>
       <c r="F118" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G118" t="s" s="33">
         <v>49</v>
@@ -6696,10 +6726,10 @@
       <c r="I118" s="34"/>
       <c r="J118" s="34"/>
       <c r="K118" t="s" s="33">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L118" t="s" s="35">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M118" s="36">
         <v>1</v>
@@ -6711,11 +6741,11 @@
         <v>2</v>
       </c>
       <c r="P118" t="s" s="33">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="13"/>
+      <c r="A119" s="26"/>
       <c r="B119" s="26"/>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
@@ -6727,7 +6757,7 @@
       <c r="J119" s="26"/>
       <c r="K119" s="26"/>
       <c r="L119" t="s" s="35">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M119" s="36">
         <v>1</v>
@@ -6737,7 +6767,7 @@
       <c r="P119" s="26"/>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="13"/>
+      <c r="A120" s="26"/>
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
@@ -6749,7 +6779,7 @@
       <c r="J120" s="26"/>
       <c r="K120" s="26"/>
       <c r="L120" t="s" s="37">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M120" s="36">
         <v>0</v>
@@ -6759,7 +6789,7 @@
       <c r="P120" s="26"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="16"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6771,7 +6801,7 @@
       <c r="J121" s="28"/>
       <c r="K121" s="28"/>
       <c r="L121" t="s" s="37">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M121" s="36">
         <v>0</v>
@@ -6781,7 +6811,7 @@
       <c r="P121" s="28"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="7">
+      <c r="A122" s="20">
         <v>32</v>
       </c>
       <c r="B122" s="20">
@@ -6791,11 +6821,11 @@
         <v>16</v>
       </c>
       <c r="D122" t="s" s="33">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E122" s="34"/>
       <c r="F122" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G122" t="s" s="33">
         <v>49</v>
@@ -6806,10 +6836,10 @@
       <c r="I122" s="34"/>
       <c r="J122" s="34"/>
       <c r="K122" t="s" s="33">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L122" t="s" s="37">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M122" s="36">
         <v>0</v>
@@ -6821,11 +6851,11 @@
         <v>3</v>
       </c>
       <c r="P122" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="13"/>
+      <c r="A123" s="26"/>
       <c r="B123" s="26"/>
       <c r="C123" s="26"/>
       <c r="D123" s="26"/>
@@ -6837,7 +6867,7 @@
       <c r="J123" s="26"/>
       <c r="K123" s="26"/>
       <c r="L123" t="s" s="37">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M123" s="36">
         <v>0</v>
@@ -6847,7 +6877,7 @@
       <c r="P123" s="26"/>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" s="13"/>
+      <c r="A124" s="26"/>
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
       <c r="D124" s="26"/>
@@ -6859,7 +6889,7 @@
       <c r="J124" s="26"/>
       <c r="K124" s="26"/>
       <c r="L124" t="s" s="37">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M124" s="36">
         <v>0</v>
@@ -6869,7 +6899,7 @@
       <c r="P124" s="26"/>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" s="16"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6891,7 +6921,7 @@
       <c r="P125" s="28"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="7">
+      <c r="A126" s="20">
         <v>33</v>
       </c>
       <c r="B126" s="20">
@@ -6901,11 +6931,11 @@
         <v>16</v>
       </c>
       <c r="D126" t="s" s="33">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E126" s="34"/>
       <c r="F126" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s" s="33">
         <v>49</v>
@@ -6916,10 +6946,10 @@
       <c r="I126" s="34"/>
       <c r="J126" s="34"/>
       <c r="K126" t="s" s="33">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L126" t="s" s="35">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M126" s="36">
         <v>1</v>
@@ -6931,11 +6961,11 @@
         <v>4</v>
       </c>
       <c r="P126" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="13"/>
+      <c r="A127" s="26"/>
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
       <c r="D127" s="26"/>
@@ -6947,7 +6977,7 @@
       <c r="J127" s="26"/>
       <c r="K127" s="26"/>
       <c r="L127" t="s" s="37">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M127" s="36">
         <v>0</v>
@@ -6957,7 +6987,7 @@
       <c r="P127" s="26"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="13"/>
+      <c r="A128" s="26"/>
       <c r="B128" s="26"/>
       <c r="C128" s="26"/>
       <c r="D128" s="26"/>
@@ -6969,7 +6999,7 @@
       <c r="J128" s="26"/>
       <c r="K128" s="26"/>
       <c r="L128" t="s" s="37">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M128" s="36">
         <v>0</v>
@@ -6979,7 +7009,7 @@
       <c r="P128" s="26"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="16"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6991,7 +7021,7 @@
       <c r="J129" s="28"/>
       <c r="K129" s="28"/>
       <c r="L129" t="s" s="37">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M129" s="36">
         <v>0</v>
@@ -7001,7 +7031,7 @@
       <c r="P129" s="28"/>
     </row>
     <row r="130" ht="15" customHeight="1">
-      <c r="A130" s="7">
+      <c r="A130" s="20">
         <v>34</v>
       </c>
       <c r="B130" s="20">
@@ -7011,11 +7041,11 @@
         <v>16</v>
       </c>
       <c r="D130" t="s" s="33">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E130" s="34"/>
       <c r="F130" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G130" t="s" s="33">
         <v>49</v>
@@ -7026,10 +7056,10 @@
       <c r="I130" s="34"/>
       <c r="J130" s="34"/>
       <c r="K130" t="s" s="33">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L130" t="s" s="37">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M130" s="36">
         <v>0</v>
@@ -7041,11 +7071,11 @@
         <v>5</v>
       </c>
       <c r="P130" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="A131" s="13"/>
+      <c r="A131" s="26"/>
       <c r="B131" s="26"/>
       <c r="C131" s="26"/>
       <c r="D131" s="26"/>
@@ -7055,9 +7085,9 @@
       <c r="H131" s="26"/>
       <c r="I131" s="26"/>
       <c r="J131" s="26"/>
-      <c r="K131" s="43"/>
+      <c r="K131" s="40"/>
       <c r="L131" t="s" s="37">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M131" s="36">
         <v>0</v>
@@ -7067,7 +7097,7 @@
       <c r="P131" s="26"/>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="A132" s="13"/>
+      <c r="A132" s="26"/>
       <c r="B132" s="26"/>
       <c r="C132" s="26"/>
       <c r="D132" s="26"/>
@@ -7077,9 +7107,9 @@
       <c r="H132" s="26"/>
       <c r="I132" s="26"/>
       <c r="J132" s="26"/>
-      <c r="K132" s="43"/>
+      <c r="K132" s="40"/>
       <c r="L132" t="s" s="37">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M132" s="36">
         <v>0</v>
@@ -7089,7 +7119,7 @@
       <c r="P132" s="26"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="A133" s="16"/>
+      <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -7099,7 +7129,7 @@
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
       <c r="J133" s="28"/>
-      <c r="K133" s="44"/>
+      <c r="K133" s="41"/>
       <c r="L133" t="s" s="35">
         <v>84</v>
       </c>
@@ -7111,7 +7141,7 @@
       <c r="P133" s="28"/>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="7">
+      <c r="A134" s="20">
         <v>35</v>
       </c>
       <c r="B134" s="20">
@@ -7121,14 +7151,14 @@
         <v>16</v>
       </c>
       <c r="D134" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E134" s="34"/>
       <c r="F134" t="s" s="33">
         <v>18</v>
       </c>
       <c r="G134" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H134" s="20">
         <v>30</v>
@@ -7136,10 +7166,10 @@
       <c r="I134" s="34"/>
       <c r="J134" s="34"/>
       <c r="K134" t="s" s="33">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L134" t="s" s="37">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M134" s="36">
         <v>0</v>
@@ -7151,11 +7181,11 @@
         <v>1</v>
       </c>
       <c r="P134" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
-      <c r="A135" s="13"/>
+      <c r="A135" s="26"/>
       <c r="B135" s="26"/>
       <c r="C135" s="26"/>
       <c r="D135" s="26"/>
@@ -7167,7 +7197,7 @@
       <c r="J135" s="26"/>
       <c r="K135" s="26"/>
       <c r="L135" t="s" s="37">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M135" s="36">
         <v>0</v>
@@ -7177,7 +7207,7 @@
       <c r="P135" s="26"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" s="13"/>
+      <c r="A136" s="26"/>
       <c r="B136" s="26"/>
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
@@ -7189,7 +7219,7 @@
       <c r="J136" s="26"/>
       <c r="K136" s="26"/>
       <c r="L136" t="s" s="37">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M136" s="36">
         <v>0</v>
@@ -7199,7 +7229,7 @@
       <c r="P136" s="26"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" s="16"/>
+      <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -7221,7 +7251,7 @@
       <c r="P137" s="28"/>
     </row>
     <row r="138" ht="15.9" customHeight="1">
-      <c r="A138" s="7">
+      <c r="A138" s="20">
         <v>36</v>
       </c>
       <c r="B138" s="20">
@@ -7231,14 +7261,14 @@
         <v>16</v>
       </c>
       <c r="D138" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E138" s="34"/>
       <c r="F138" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G138" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H138" s="20">
         <v>30</v>
@@ -7246,10 +7276,10 @@
       <c r="I138" s="34"/>
       <c r="J138" s="34"/>
       <c r="K138" t="s" s="33">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L138" t="s" s="37">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M138" s="36">
         <v>0</v>
@@ -7261,11 +7291,11 @@
         <v>2</v>
       </c>
       <c r="P138" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
-      <c r="A139" s="13"/>
+      <c r="A139" s="26"/>
       <c r="B139" s="26"/>
       <c r="C139" s="26"/>
       <c r="D139" s="26"/>
@@ -7277,7 +7307,7 @@
       <c r="J139" s="26"/>
       <c r="K139" s="26"/>
       <c r="L139" t="s" s="35">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M139" s="36">
         <v>1</v>
@@ -7287,7 +7317,7 @@
       <c r="P139" s="26"/>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="A140" s="13"/>
+      <c r="A140" s="26"/>
       <c r="B140" s="26"/>
       <c r="C140" s="26"/>
       <c r="D140" s="26"/>
@@ -7299,7 +7329,7 @@
       <c r="J140" s="26"/>
       <c r="K140" s="26"/>
       <c r="L140" t="s" s="37">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M140" s="36">
         <v>0</v>
@@ -7309,7 +7339,7 @@
       <c r="P140" s="26"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="16"/>
+      <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -7321,7 +7351,7 @@
       <c r="J141" s="28"/>
       <c r="K141" s="28"/>
       <c r="L141" t="s" s="37">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M141" s="36">
         <v>0</v>
@@ -7331,7 +7361,7 @@
       <c r="P141" s="28"/>
     </row>
     <row r="142" ht="17" customHeight="1">
-      <c r="A142" s="7">
+      <c r="A142" s="20">
         <v>37</v>
       </c>
       <c r="B142" s="20">
@@ -7341,14 +7371,14 @@
         <v>16</v>
       </c>
       <c r="D142" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E142" s="34"/>
       <c r="F142" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G142" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H142" s="20">
         <v>30</v>
@@ -7356,10 +7386,10 @@
       <c r="I142" s="34"/>
       <c r="J142" s="34"/>
       <c r="K142" t="s" s="33">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L142" t="s" s="37">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M142" s="36">
         <v>0</v>
@@ -7371,11 +7401,11 @@
         <v>3</v>
       </c>
       <c r="P142" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" ht="15.9" customHeight="1">
-      <c r="A143" s="13"/>
+      <c r="A143" s="26"/>
       <c r="B143" s="26"/>
       <c r="C143" s="26"/>
       <c r="D143" s="26"/>
@@ -7387,7 +7417,7 @@
       <c r="J143" s="26"/>
       <c r="K143" s="26"/>
       <c r="L143" t="s" s="37">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M143" s="36">
         <v>0</v>
@@ -7397,7 +7427,7 @@
       <c r="P143" s="26"/>
     </row>
     <row r="144" ht="17" customHeight="1">
-      <c r="A144" s="13"/>
+      <c r="A144" s="26"/>
       <c r="B144" s="26"/>
       <c r="C144" s="26"/>
       <c r="D144" s="26"/>
@@ -7409,7 +7439,7 @@
       <c r="J144" s="26"/>
       <c r="K144" s="26"/>
       <c r="L144" t="s" s="37">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M144" s="36">
         <v>0</v>
@@ -7419,7 +7449,7 @@
       <c r="P144" s="26"/>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" s="16"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -7441,7 +7471,7 @@
       <c r="P145" s="28"/>
     </row>
     <row r="146" ht="15.9" customHeight="1">
-      <c r="A146" s="7">
+      <c r="A146" s="20">
         <v>38</v>
       </c>
       <c r="B146" s="20">
@@ -7451,14 +7481,14 @@
         <v>16</v>
       </c>
       <c r="D146" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E146" s="34"/>
       <c r="F146" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G146" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H146" s="20">
         <v>30</v>
@@ -7466,10 +7496,10 @@
       <c r="I146" s="34"/>
       <c r="J146" s="34"/>
       <c r="K146" t="s" s="33">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L146" t="s" s="35">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M146" s="36">
         <v>1</v>
@@ -7481,11 +7511,11 @@
         <v>4</v>
       </c>
       <c r="P146" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
-      <c r="A147" s="13"/>
+      <c r="A147" s="26"/>
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
       <c r="D147" s="26"/>
@@ -7497,7 +7527,7 @@
       <c r="J147" s="26"/>
       <c r="K147" s="26"/>
       <c r="L147" t="s" s="37">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M147" s="36">
         <v>0</v>
@@ -7507,7 +7537,7 @@
       <c r="P147" s="26"/>
     </row>
     <row r="148" ht="15" customHeight="1">
-      <c r="A148" s="13"/>
+      <c r="A148" s="26"/>
       <c r="B148" s="26"/>
       <c r="C148" s="26"/>
       <c r="D148" s="26"/>
@@ -7519,7 +7549,7 @@
       <c r="J148" s="26"/>
       <c r="K148" s="26"/>
       <c r="L148" t="s" s="37">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M148" s="36">
         <v>0</v>
@@ -7529,7 +7559,7 @@
       <c r="P148" s="26"/>
     </row>
     <row r="149" ht="15" customHeight="1">
-      <c r="A149" s="16"/>
+      <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -7541,7 +7571,7 @@
       <c r="J149" s="28"/>
       <c r="K149" s="28"/>
       <c r="L149" t="s" s="37">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M149" s="36">
         <v>0</v>
@@ -7551,7 +7581,7 @@
       <c r="P149" s="28"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="7">
+      <c r="A150" s="20">
         <v>39</v>
       </c>
       <c r="B150" s="20">
@@ -7561,7 +7591,7 @@
         <v>68</v>
       </c>
       <c r="D150" t="s" s="33">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
@@ -7574,10 +7604,10 @@
       <c r="I150" s="34"/>
       <c r="J150" s="34"/>
       <c r="K150" t="s" s="33">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L150" t="s" s="35">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M150" s="36">
         <v>1</v>
@@ -7589,11 +7619,11 @@
         <v>5</v>
       </c>
       <c r="P150" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" ht="17" customHeight="1">
-      <c r="A151" s="13"/>
+      <c r="A151" s="26"/>
       <c r="B151" s="26"/>
       <c r="C151" s="26"/>
       <c r="D151" s="26"/>
@@ -7605,7 +7635,7 @@
       <c r="J151" s="26"/>
       <c r="K151" s="26"/>
       <c r="L151" t="s" s="37">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M151" s="36">
         <v>0</v>
@@ -7615,7 +7645,7 @@
       <c r="P151" s="26"/>
     </row>
     <row r="152" ht="17" customHeight="1">
-      <c r="A152" s="13"/>
+      <c r="A152" s="26"/>
       <c r="B152" s="26"/>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
@@ -7627,7 +7657,7 @@
       <c r="J152" s="26"/>
       <c r="K152" s="26"/>
       <c r="L152" t="s" s="37">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M152" s="36">
         <v>0</v>
@@ -7637,7 +7667,7 @@
       <c r="P152" s="26"/>
     </row>
     <row r="153" ht="17" customHeight="1">
-      <c r="A153" s="16"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7649,7 +7679,7 @@
       <c r="J153" s="28"/>
       <c r="K153" s="28"/>
       <c r="L153" t="s" s="37">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M153" s="36">
         <v>0</v>
@@ -7659,7 +7689,7 @@
       <c r="P153" s="28"/>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="A154" s="7">
+      <c r="A154" s="20">
         <v>40</v>
       </c>
       <c r="B154" s="20">
@@ -7669,7 +7699,7 @@
         <v>68</v>
       </c>
       <c r="D154" t="s" s="33">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
@@ -7682,10 +7712,10 @@
       <c r="I154" s="34"/>
       <c r="J154" s="34"/>
       <c r="K154" t="s" s="33">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L154" t="s" s="37">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M154" s="36">
         <v>0</v>
@@ -7697,11 +7727,11 @@
         <v>1</v>
       </c>
       <c r="P154" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
-      <c r="A155" s="13"/>
+      <c r="A155" s="26"/>
       <c r="B155" s="26"/>
       <c r="C155" s="26"/>
       <c r="D155" s="26"/>
@@ -7723,7 +7753,7 @@
       <c r="P155" s="26"/>
     </row>
     <row r="156" ht="15.9" customHeight="1">
-      <c r="A156" s="13"/>
+      <c r="A156" s="26"/>
       <c r="B156" s="26"/>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
@@ -7735,7 +7765,7 @@
       <c r="J156" s="26"/>
       <c r="K156" s="26"/>
       <c r="L156" t="s" s="35">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M156" s="36">
         <v>1</v>
@@ -7745,7 +7775,7 @@
       <c r="P156" s="26"/>
     </row>
     <row r="157" ht="15" customHeight="1">
-      <c r="A157" s="16"/>
+      <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7768,20 +7798,20 @@
     </row>
     <row r="158" ht="25.5" customHeight="1">
       <c r="A158" s="21">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B158" s="21">
         <v>4</v>
       </c>
       <c r="C158" t="s" s="22">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D158" t="s" s="22">
         <v>49</v>
       </c>
       <c r="E158" s="23"/>
       <c r="F158" t="s" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G158" t="s" s="22">
         <v>50</v>
@@ -7792,10 +7822,10 @@
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
       <c r="K158" t="s" s="22">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L158" t="s" s="22">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M158" s="21">
         <v>0</v>
@@ -7807,7 +7837,7 @@
         <v>3</v>
       </c>
       <c r="P158" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" ht="13.65" customHeight="1">
@@ -7823,7 +7853,7 @@
       <c r="J159" s="25"/>
       <c r="K159" s="25"/>
       <c r="L159" t="s" s="22">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M159" s="21">
         <v>0</v>
@@ -7845,7 +7875,7 @@
       <c r="J160" s="25"/>
       <c r="K160" s="25"/>
       <c r="L160" t="s" s="22">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M160" s="21">
         <v>0</v>
@@ -7878,13 +7908,13 @@
     </row>
     <row r="162" ht="13.65" customHeight="1">
       <c r="A162" s="21">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B162" s="21">
         <v>4</v>
       </c>
       <c r="C162" t="s" s="22">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D162" t="s" s="22">
         <v>49</v>
@@ -7902,7 +7932,7 @@
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
       <c r="K162" t="s" s="22">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L162" t="s" s="22">
         <v>53</v>
@@ -7917,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="P162" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" ht="13.65" customHeight="1">
@@ -7933,7 +7963,7 @@
       <c r="J163" s="25"/>
       <c r="K163" s="25"/>
       <c r="L163" t="s" s="22">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M163" s="21">
         <v>0</v>
@@ -7955,7 +7985,7 @@
       <c r="J164" s="25"/>
       <c r="K164" s="25"/>
       <c r="L164" t="s" s="30">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M164" s="21">
         <v>1</v>
@@ -7977,7 +8007,7 @@
       <c r="J165" s="25"/>
       <c r="K165" s="25"/>
       <c r="L165" t="s" s="22">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M165" s="21">
         <v>0</v>
@@ -7988,13 +8018,13 @@
     </row>
     <row r="166" ht="13.65" customHeight="1">
       <c r="A166" s="21">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B166" s="21">
         <v>4</v>
       </c>
       <c r="C166" t="s" s="22">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D166" t="s" s="22">
         <v>49</v>
@@ -8012,10 +8042,10 @@
       <c r="I166" s="25"/>
       <c r="J166" s="25"/>
       <c r="K166" t="s" s="22">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L166" t="s" s="22">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M166" s="21">
         <v>0</v>
@@ -8027,7 +8057,7 @@
         <v>5</v>
       </c>
       <c r="P166" t="s" s="22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" ht="13.65" customHeight="1">
@@ -8043,7 +8073,7 @@
       <c r="J167" s="25"/>
       <c r="K167" s="25"/>
       <c r="L167" t="s" s="22">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M167" s="21">
         <v>0</v>
@@ -8065,7 +8095,7 @@
       <c r="J168" s="25"/>
       <c r="K168" s="25"/>
       <c r="L168" t="s" s="22">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M168" s="21">
         <v>0</v>
@@ -8098,7 +8128,7 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="A170" s="20">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B170" s="20">
         <v>4</v>
@@ -8107,14 +8137,14 @@
         <v>16</v>
       </c>
       <c r="D170" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E170" s="34"/>
       <c r="F170" t="s" s="33">
         <v>18</v>
       </c>
       <c r="G170" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H170" s="20">
         <v>30</v>
@@ -8122,10 +8152,10 @@
       <c r="I170" s="34"/>
       <c r="J170" s="34"/>
       <c r="K170" t="s" s="33">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L170" t="s" s="37">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M170" s="36">
         <v>0</v>
@@ -8137,7 +8167,7 @@
         <v>2</v>
       </c>
       <c r="P170" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
@@ -8153,7 +8183,7 @@
       <c r="J171" s="26"/>
       <c r="K171" s="26"/>
       <c r="L171" t="s" s="37">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M171" s="36">
         <v>0</v>
@@ -8175,7 +8205,7 @@
       <c r="J172" s="26"/>
       <c r="K172" s="26"/>
       <c r="L172" t="s" s="35">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M172" s="36">
         <v>1</v>
@@ -8197,7 +8227,7 @@
       <c r="J173" s="28"/>
       <c r="K173" s="28"/>
       <c r="L173" t="s" s="37">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M173" s="36">
         <v>0</v>
@@ -8208,7 +8238,7 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="A174" s="20">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B174" s="20">
         <v>4</v>
@@ -8217,14 +8247,14 @@
         <v>16</v>
       </c>
       <c r="D174" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E174" s="34"/>
       <c r="F174" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G174" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H174" s="20">
         <v>30</v>
@@ -8232,10 +8262,10 @@
       <c r="I174" s="34"/>
       <c r="J174" s="34"/>
       <c r="K174" t="s" s="33">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L174" t="s" s="35">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M174" s="36">
         <v>1</v>
@@ -8247,7 +8277,7 @@
         <v>3</v>
       </c>
       <c r="P174" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" ht="17" customHeight="1">
@@ -8263,7 +8293,7 @@
       <c r="J175" s="26"/>
       <c r="K175" s="26"/>
       <c r="L175" t="s" s="37">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M175" s="36">
         <v>0</v>
@@ -8285,7 +8315,7 @@
       <c r="J176" s="26"/>
       <c r="K176" s="26"/>
       <c r="L176" t="s" s="37">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M176" s="36">
         <v>0</v>
@@ -8307,7 +8337,7 @@
       <c r="J177" s="28"/>
       <c r="K177" s="28"/>
       <c r="L177" t="s" s="37">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M177" s="36">
         <v>0</v>
@@ -8318,7 +8348,7 @@
     </row>
     <row r="178" ht="15.9" customHeight="1">
       <c r="A178" s="20">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B178" s="20">
         <v>4</v>
@@ -8327,14 +8357,14 @@
         <v>16</v>
       </c>
       <c r="D178" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E178" s="34"/>
       <c r="F178" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G178" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H178" s="20">
         <v>30</v>
@@ -8342,10 +8372,10 @@
       <c r="I178" s="34"/>
       <c r="J178" s="34"/>
       <c r="K178" t="s" s="33">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L178" t="s" s="37">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M178" s="36">
         <v>0</v>
@@ -8357,7 +8387,7 @@
         <v>4</v>
       </c>
       <c r="P178" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" ht="15.9" customHeight="1">
@@ -8373,7 +8403,7 @@
       <c r="J179" s="26"/>
       <c r="K179" s="26"/>
       <c r="L179" t="s" s="37">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M179" s="36">
         <v>0</v>
@@ -8395,7 +8425,7 @@
       <c r="J180" s="26"/>
       <c r="K180" s="26"/>
       <c r="L180" t="s" s="37">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M180" s="36">
         <v>0</v>
@@ -8417,7 +8447,7 @@
       <c r="J181" s="28"/>
       <c r="K181" s="28"/>
       <c r="L181" t="s" s="35">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M181" s="36">
         <v>1</v>
@@ -8428,7 +8458,7 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="A182" s="20">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B182" s="20">
         <v>4</v>
@@ -8437,14 +8467,14 @@
         <v>16</v>
       </c>
       <c r="D182" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E182" s="34"/>
       <c r="F182" t="s" s="33">
         <v>18</v>
       </c>
       <c r="G182" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H182" s="20">
         <v>30</v>
@@ -8452,10 +8482,10 @@
       <c r="I182" s="34"/>
       <c r="J182" s="34"/>
       <c r="K182" t="s" s="33">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L182" t="s" s="37">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M182" s="36">
         <v>0</v>
@@ -8467,7 +8497,7 @@
         <v>5</v>
       </c>
       <c r="P182" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
@@ -8483,7 +8513,7 @@
       <c r="J183" s="26"/>
       <c r="K183" s="26"/>
       <c r="L183" t="s" s="37">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M183" s="36">
         <v>0</v>
@@ -8505,7 +8535,7 @@
       <c r="J184" s="26"/>
       <c r="K184" s="26"/>
       <c r="L184" t="s" s="35">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M184" s="36">
         <v>1</v>
@@ -8527,7 +8557,7 @@
       <c r="J185" s="28"/>
       <c r="K185" s="28"/>
       <c r="L185" t="s" s="37">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M185" s="36">
         <v>0</v>
@@ -8538,7 +8568,7 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="A186" s="20">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B186" s="20">
         <v>4</v>
@@ -8547,14 +8577,14 @@
         <v>16</v>
       </c>
       <c r="D186" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E186" s="34"/>
       <c r="F186" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G186" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H186" s="20">
         <v>30</v>
@@ -8562,10 +8592,10 @@
       <c r="I186" s="34"/>
       <c r="J186" s="34"/>
       <c r="K186" t="s" s="33">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L186" t="s" s="37">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M186" s="36">
         <v>0</v>
@@ -8577,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" ht="17" customHeight="1">
@@ -8593,7 +8623,7 @@
       <c r="J187" s="26"/>
       <c r="K187" s="26"/>
       <c r="L187" t="s" s="37">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M187" s="36">
         <v>0</v>
@@ -8615,7 +8645,7 @@
       <c r="J188" s="26"/>
       <c r="K188" s="26"/>
       <c r="L188" t="s" s="37">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M188" s="36">
         <v>0</v>
@@ -8637,7 +8667,7 @@
       <c r="J189" s="28"/>
       <c r="K189" s="28"/>
       <c r="L189" t="s" s="35">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M189" s="36">
         <v>1</v>
@@ -8648,7 +8678,7 @@
     </row>
     <row r="190" ht="17" customHeight="1">
       <c r="A190" s="20">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B190" s="20">
         <v>4</v>
@@ -8657,14 +8687,14 @@
         <v>16</v>
       </c>
       <c r="D190" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E190" s="34"/>
       <c r="F190" t="s" s="33">
         <v>18</v>
       </c>
       <c r="G190" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H190" s="20">
         <v>30</v>
@@ -8672,10 +8702,10 @@
       <c r="I190" s="34"/>
       <c r="J190" s="34"/>
       <c r="K190" t="s" s="33">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L190" t="s" s="35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M190" s="36">
         <v>1</v>
@@ -8687,7 +8717,7 @@
         <v>2</v>
       </c>
       <c r="P190" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" ht="17" customHeight="1">
@@ -8703,7 +8733,7 @@
       <c r="J191" s="26"/>
       <c r="K191" s="26"/>
       <c r="L191" t="s" s="37">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M191" s="36">
         <v>0</v>
@@ -8725,7 +8755,7 @@
       <c r="J192" s="26"/>
       <c r="K192" s="26"/>
       <c r="L192" t="s" s="37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M192" s="36">
         <v>0</v>
@@ -8747,7 +8777,7 @@
       <c r="J193" s="28"/>
       <c r="K193" s="28"/>
       <c r="L193" t="s" s="37">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M193" s="36">
         <v>0</v>
@@ -8758,7 +8788,7 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="A194" s="20">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B194" s="20">
         <v>4</v>
@@ -8767,7 +8797,7 @@
         <v>68</v>
       </c>
       <c r="D194" t="s" s="33">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
@@ -8780,10 +8810,10 @@
       <c r="I194" s="34"/>
       <c r="J194" s="34"/>
       <c r="K194" t="s" s="33">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L194" t="s" s="37">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M194" s="36">
         <v>0</v>
@@ -8795,7 +8825,7 @@
         <v>3</v>
       </c>
       <c r="P194" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
@@ -8811,7 +8841,7 @@
       <c r="J195" s="26"/>
       <c r="K195" s="26"/>
       <c r="L195" t="s" s="37">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M195" s="36">
         <v>0</v>
@@ -8833,7 +8863,7 @@
       <c r="J196" s="26"/>
       <c r="K196" s="26"/>
       <c r="L196" t="s" s="37">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M196" s="36">
         <v>0</v>
@@ -8866,7 +8896,7 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="A198" s="20">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B198" s="20">
         <v>4</v>
@@ -8875,7 +8905,7 @@
         <v>68</v>
       </c>
       <c r="D198" t="s" s="33">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E198" s="34"/>
       <c r="F198" s="34"/>
@@ -8888,10 +8918,10 @@
       <c r="I198" s="34"/>
       <c r="J198" s="34"/>
       <c r="K198" t="s" s="33">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L198" t="s" s="35">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M198" s="36">
         <v>1</v>
@@ -8903,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="P198" t="s" s="33">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
@@ -8919,7 +8949,7 @@
       <c r="J199" s="28"/>
       <c r="K199" s="28"/>
       <c r="L199" t="s" s="37">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M199" s="36">
         <v>0</v>
@@ -8930,7 +8960,7 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="A200" s="20">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B200" s="20">
         <v>4</v>
@@ -8939,11 +8969,11 @@
         <v>16</v>
       </c>
       <c r="D200" t="s" s="33">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E200" s="34"/>
       <c r="F200" t="s" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G200" t="s" s="33">
         <v>49</v>
@@ -8954,10 +8984,10 @@
       <c r="I200" s="34"/>
       <c r="J200" s="34"/>
       <c r="K200" t="s" s="33">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L200" t="s" s="37">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M200" s="36">
         <v>0</v>
@@ -8969,7 +8999,7 @@
         <v>5</v>
       </c>
       <c r="P200" t="s" s="33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
@@ -8985,7 +9015,7 @@
       <c r="J201" s="26"/>
       <c r="K201" s="26"/>
       <c r="L201" t="s" s="37">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M201" s="36">
         <v>0</v>
@@ -9007,7 +9037,7 @@
       <c r="J202" s="26"/>
       <c r="K202" s="26"/>
       <c r="L202" t="s" s="35">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M202" s="36">
         <v>1</v>
@@ -9029,7 +9059,7 @@
       <c r="J203" s="28"/>
       <c r="K203" s="28"/>
       <c r="L203" t="s" s="37">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M203" s="36">
         <v>0</v>
@@ -9038,9 +9068,9 @@
       <c r="O203" s="28"/>
       <c r="P203" s="28"/>
     </row>
-    <row r="204" ht="16" customHeight="1">
+    <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="7">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B204" s="7">
         <v>1</v>
@@ -9062,10 +9092,10 @@
         <v>7</v>
       </c>
       <c r="K204" t="s" s="10">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L204" t="s" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M204" s="12">
         <v>0</v>
@@ -9077,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="P204" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" ht="16" customHeight="1">
@@ -9093,7 +9123,7 @@
       <c r="J205" s="13"/>
       <c r="K205" s="14"/>
       <c r="L205" t="s" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M205" s="12">
         <v>0</v>
@@ -9115,7 +9145,7 @@
       <c r="J206" s="13"/>
       <c r="K206" s="14"/>
       <c r="L206" t="s" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M206" s="12">
         <v>0</v>
@@ -9137,7 +9167,7 @@
       <c r="J207" s="16"/>
       <c r="K207" s="17"/>
       <c r="L207" t="s" s="15">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M207" s="12">
         <v>1</v>
@@ -9146,9 +9176,9 @@
       <c r="O207" s="16"/>
       <c r="P207" s="16"/>
     </row>
-    <row r="208" ht="16" customHeight="1">
+    <row r="208" ht="24.75" customHeight="1">
       <c r="A208" s="7">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B208" s="7">
         <v>1</v>
@@ -9170,10 +9200,10 @@
         <v>8</v>
       </c>
       <c r="K208" t="s" s="10">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L208" t="s" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M208" s="12">
         <v>0</v>
@@ -9185,10 +9215,10 @@
         <v>3</v>
       </c>
       <c r="P208" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="209" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" ht="24.75" customHeight="1">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -9201,7 +9231,7 @@
       <c r="J209" s="13"/>
       <c r="K209" s="14"/>
       <c r="L209" t="s" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M209" s="12">
         <v>0</v>
@@ -9210,7 +9240,7 @@
       <c r="O209" s="13"/>
       <c r="P209" s="13"/>
     </row>
-    <row r="210" ht="16" customHeight="1">
+    <row r="210" ht="24.75" customHeight="1">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -9223,7 +9253,7 @@
       <c r="J210" s="13"/>
       <c r="K210" s="14"/>
       <c r="L210" t="s" s="15">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M210" s="12">
         <v>1</v>
@@ -9232,7 +9262,7 @@
       <c r="O210" s="13"/>
       <c r="P210" s="13"/>
     </row>
-    <row r="211" ht="16" customHeight="1">
+    <row r="211" ht="24.75" customHeight="1">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
@@ -9245,7 +9275,7 @@
       <c r="J211" s="16"/>
       <c r="K211" s="17"/>
       <c r="L211" t="s" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M211" s="12">
         <v>0</v>
@@ -9254,9 +9284,9 @@
       <c r="O211" s="16"/>
       <c r="P211" s="16"/>
     </row>
-    <row r="212" ht="16" customHeight="1">
+    <row r="212" ht="24.75" customHeight="1">
       <c r="A212" s="7">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B212" s="7">
         <v>1</v>
@@ -9278,10 +9308,10 @@
         <v>9</v>
       </c>
       <c r="K212" t="s" s="10">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L212" t="s" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M212" s="12">
         <v>0</v>
@@ -9293,10 +9323,10 @@
         <v>4</v>
       </c>
       <c r="P212" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="213" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" ht="24.75" customHeight="1">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -9309,7 +9339,7 @@
       <c r="J213" s="13"/>
       <c r="K213" s="14"/>
       <c r="L213" t="s" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M213" s="12">
         <v>0</v>
@@ -9318,7 +9348,7 @@
       <c r="O213" s="13"/>
       <c r="P213" s="13"/>
     </row>
-    <row r="214" ht="16" customHeight="1">
+    <row r="214" ht="24.75" customHeight="1">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -9331,7 +9361,7 @@
       <c r="J214" s="13"/>
       <c r="K214" s="14"/>
       <c r="L214" t="s" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M214" s="12">
         <v>0</v>
@@ -9340,7 +9370,7 @@
       <c r="O214" s="13"/>
       <c r="P214" s="13"/>
     </row>
-    <row r="215" ht="16" customHeight="1">
+    <row r="215" ht="24.75" customHeight="1">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
@@ -9353,7 +9383,7 @@
       <c r="J215" s="16"/>
       <c r="K215" s="17"/>
       <c r="L215" t="s" s="15">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M215" s="12">
         <v>1</v>
@@ -9362,9 +9392,9 @@
       <c r="O215" s="16"/>
       <c r="P215" s="16"/>
     </row>
-    <row r="216" ht="16" customHeight="1">
+    <row r="216" ht="24.75" customHeight="1">
       <c r="A216" s="7">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B216" s="7">
         <v>1</v>
@@ -9386,10 +9416,10 @@
         <v>10</v>
       </c>
       <c r="K216" t="s" s="10">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L216" t="s" s="15">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M216" s="12">
         <v>1</v>
@@ -9401,10 +9431,10 @@
         <v>5</v>
       </c>
       <c r="P216" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="217" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" ht="24.75" customHeight="1">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -9417,7 +9447,7 @@
       <c r="J217" s="13"/>
       <c r="K217" s="14"/>
       <c r="L217" t="s" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M217" s="12">
         <v>0</v>
@@ -9426,7 +9456,7 @@
       <c r="O217" s="13"/>
       <c r="P217" s="13"/>
     </row>
-    <row r="218" ht="17" customHeight="1">
+    <row r="218" ht="24.75" customHeight="1">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -9439,7 +9469,7 @@
       <c r="J218" s="13"/>
       <c r="K218" s="14"/>
       <c r="L218" t="s" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M218" s="12">
         <v>0</v>
@@ -9448,7 +9478,7 @@
       <c r="O218" s="13"/>
       <c r="P218" s="13"/>
     </row>
-    <row r="219" ht="17" customHeight="1">
+    <row r="219" ht="24.75" customHeight="1">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
@@ -9461,7 +9491,7 @@
       <c r="J219" s="16"/>
       <c r="K219" s="17"/>
       <c r="L219" t="s" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M219" s="12">
         <v>0</v>
@@ -9470,9 +9500,9 @@
       <c r="O219" s="16"/>
       <c r="P219" s="16"/>
     </row>
-    <row r="220" ht="16" customHeight="1">
+    <row r="220" ht="24.75" customHeight="1">
       <c r="A220" s="7">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B220" s="7">
         <v>2</v>
@@ -9494,10 +9524,10 @@
         <v>11</v>
       </c>
       <c r="K220" t="s" s="10">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L220" t="s" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M220" s="12">
         <v>0</v>
@@ -9509,10 +9539,10 @@
         <v>1</v>
       </c>
       <c r="P220" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="221" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" ht="24.75" customHeight="1">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -9525,7 +9555,7 @@
       <c r="J221" s="13"/>
       <c r="K221" s="18"/>
       <c r="L221" t="s" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M221" s="12">
         <v>0</v>
@@ -9534,7 +9564,7 @@
       <c r="O221" s="13"/>
       <c r="P221" s="13"/>
     </row>
-    <row r="222" ht="16" customHeight="1">
+    <row r="222" ht="24.75" customHeight="1">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -9547,7 +9577,7 @@
       <c r="J222" s="13"/>
       <c r="K222" s="18"/>
       <c r="L222" t="s" s="15">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M222" s="12">
         <v>1</v>
@@ -9556,7 +9586,7 @@
       <c r="O222" s="13"/>
       <c r="P222" s="13"/>
     </row>
-    <row r="223" ht="16" customHeight="1">
+    <row r="223" ht="24.75" customHeight="1">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
@@ -9569,7 +9599,7 @@
       <c r="J223" s="16"/>
       <c r="K223" s="19"/>
       <c r="L223" t="s" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M223" s="12">
         <v>0</v>
@@ -9578,9 +9608,9 @@
       <c r="O223" s="16"/>
       <c r="P223" s="16"/>
     </row>
-    <row r="224" ht="16" customHeight="1">
+    <row r="224" ht="24.75" customHeight="1">
       <c r="A224" s="7">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B224" s="7">
         <v>2</v>
@@ -9602,10 +9632,10 @@
         <v>12</v>
       </c>
       <c r="K224" t="s" s="10">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L224" t="s" s="15">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M224" s="12">
         <v>1</v>
@@ -9617,10 +9647,10 @@
         <v>2</v>
       </c>
       <c r="P224" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" ht="24.75" customHeight="1">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -9633,7 +9663,7 @@
       <c r="J225" s="13"/>
       <c r="K225" s="18"/>
       <c r="L225" t="s" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M225" s="12">
         <v>0</v>
@@ -9642,7 +9672,7 @@
       <c r="O225" s="13"/>
       <c r="P225" s="13"/>
     </row>
-    <row r="226" ht="16" customHeight="1">
+    <row r="226" ht="24.75" customHeight="1">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -9655,7 +9685,7 @@
       <c r="J226" s="13"/>
       <c r="K226" s="18"/>
       <c r="L226" t="s" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M226" s="12">
         <v>0</v>
@@ -9664,7 +9694,7 @@
       <c r="O226" s="13"/>
       <c r="P226" s="13"/>
     </row>
-    <row r="227" ht="17" customHeight="1">
+    <row r="227" ht="24.75" customHeight="1">
       <c r="A227" s="16"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
@@ -9677,7 +9707,7 @@
       <c r="J227" s="16"/>
       <c r="K227" s="19"/>
       <c r="L227" t="s" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M227" s="12">
         <v>0</v>
@@ -9686,9 +9716,9 @@
       <c r="O227" s="16"/>
       <c r="P227" s="16"/>
     </row>
-    <row r="228" ht="16" customHeight="1">
+    <row r="228" ht="24.75" customHeight="1">
       <c r="A228" s="7">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B228" s="7">
         <v>2</v>
@@ -9710,10 +9740,10 @@
         <v>13</v>
       </c>
       <c r="K228" t="s" s="10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L228" t="s" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M228" s="12">
         <v>0</v>
@@ -9725,10 +9755,10 @@
         <v>3</v>
       </c>
       <c r="P228" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="229" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" ht="24.75" customHeight="1">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -9741,7 +9771,7 @@
       <c r="J229" s="13"/>
       <c r="K229" s="14"/>
       <c r="L229" t="s" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M229" s="12">
         <v>0</v>
@@ -9750,7 +9780,7 @@
       <c r="O229" s="13"/>
       <c r="P229" s="13"/>
     </row>
-    <row r="230" ht="16" customHeight="1">
+    <row r="230" ht="24.75" customHeight="1">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -9763,7 +9793,7 @@
       <c r="J230" s="13"/>
       <c r="K230" s="14"/>
       <c r="L230" t="s" s="15">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M230" s="12">
         <v>1</v>
@@ -9772,7 +9802,7 @@
       <c r="O230" s="13"/>
       <c r="P230" s="13"/>
     </row>
-    <row r="231" ht="16" customHeight="1">
+    <row r="231" ht="24.75" customHeight="1">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
@@ -9785,7 +9815,7 @@
       <c r="J231" s="16"/>
       <c r="K231" s="17"/>
       <c r="L231" t="s" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M231" s="12">
         <v>0</v>
@@ -9794,9 +9824,9 @@
       <c r="O231" s="16"/>
       <c r="P231" s="16"/>
     </row>
-    <row r="232" ht="16" customHeight="1">
+    <row r="232" ht="24.75" customHeight="1">
       <c r="A232" s="7">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B232" s="7">
         <v>2</v>
@@ -9818,10 +9848,10 @@
         <v>14</v>
       </c>
       <c r="K232" t="s" s="10">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L232" t="s" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M232" s="12">
         <v>0</v>
@@ -9833,10 +9863,10 @@
         <v>4</v>
       </c>
       <c r="P232" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" ht="24.75" customHeight="1">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -9849,7 +9879,7 @@
       <c r="J233" s="13"/>
       <c r="K233" s="14"/>
       <c r="L233" t="s" s="15">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M233" s="12">
         <v>1</v>
@@ -9858,7 +9888,7 @@
       <c r="O233" s="13"/>
       <c r="P233" s="13"/>
     </row>
-    <row r="234" ht="16" customHeight="1">
+    <row r="234" ht="24.75" customHeight="1">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -9871,7 +9901,7 @@
       <c r="J234" s="13"/>
       <c r="K234" s="14"/>
       <c r="L234" t="s" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M234" s="12">
         <v>0</v>
@@ -9880,7 +9910,7 @@
       <c r="O234" s="13"/>
       <c r="P234" s="13"/>
     </row>
-    <row r="235" ht="16" customHeight="1">
+    <row r="235" ht="24.75" customHeight="1">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
@@ -9902,9 +9932,9 @@
       <c r="O235" s="16"/>
       <c r="P235" s="16"/>
     </row>
-    <row r="236" ht="16" customHeight="1">
+    <row r="236" ht="24.75" customHeight="1">
       <c r="A236" s="7">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B236" s="7">
         <v>2</v>
@@ -9926,10 +9956,10 @@
         <v>15</v>
       </c>
       <c r="K236" t="s" s="10">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L236" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M236" s="12">
         <v>0</v>
@@ -9941,10 +9971,10 @@
         <v>5</v>
       </c>
       <c r="P236" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" ht="24.75" customHeight="1">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -9957,7 +9987,7 @@
       <c r="J237" s="13"/>
       <c r="K237" s="14"/>
       <c r="L237" t="s" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M237" s="12">
         <v>0</v>
@@ -9966,7 +9996,7 @@
       <c r="O237" s="13"/>
       <c r="P237" s="13"/>
     </row>
-    <row r="238" ht="16" customHeight="1">
+    <row r="238" ht="24.75" customHeight="1">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -9979,7 +10009,7 @@
       <c r="J238" s="13"/>
       <c r="K238" s="14"/>
       <c r="L238" t="s" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M238" s="12">
         <v>0</v>
@@ -9988,7 +10018,7 @@
       <c r="O238" s="13"/>
       <c r="P238" s="13"/>
     </row>
-    <row r="239" ht="16" customHeight="1">
+    <row r="239" ht="24.75" customHeight="1">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
@@ -10001,7 +10031,7 @@
       <c r="J239" s="16"/>
       <c r="K239" s="17"/>
       <c r="L239" t="s" s="15">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M239" s="12">
         <v>1</v>
@@ -10010,9 +10040,9 @@
       <c r="O239" s="16"/>
       <c r="P239" s="16"/>
     </row>
-    <row r="240" ht="17" customHeight="1">
+    <row r="240" ht="24.75" customHeight="1">
       <c r="A240" s="7">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B240" s="7">
         <v>2</v>
@@ -10034,10 +10064,10 @@
         <v>16</v>
       </c>
       <c r="K240" t="s" s="10">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L240" t="s" s="15">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M240" s="12">
         <v>1</v>
@@ -10049,10 +10079,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="241" ht="17" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" ht="24.75" customHeight="1">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -10065,7 +10095,7 @@
       <c r="J241" s="13"/>
       <c r="K241" s="14"/>
       <c r="L241" t="s" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M241" s="12">
         <v>0</v>
@@ -10074,7 +10104,7 @@
       <c r="O241" s="13"/>
       <c r="P241" s="13"/>
     </row>
-    <row r="242" ht="16" customHeight="1">
+    <row r="242" ht="24.75" customHeight="1">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -10087,7 +10117,7 @@
       <c r="J242" s="13"/>
       <c r="K242" s="14"/>
       <c r="L242" t="s" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M242" s="12">
         <v>0</v>
@@ -10096,7 +10126,7 @@
       <c r="O242" s="13"/>
       <c r="P242" s="13"/>
     </row>
-    <row r="243" ht="17" customHeight="1">
+    <row r="243" ht="24.75" customHeight="1">
       <c r="A243" s="16"/>
       <c r="B243" s="16"/>
       <c r="C243" s="16"/>
@@ -10109,7 +10139,7 @@
       <c r="J243" s="16"/>
       <c r="K243" s="17"/>
       <c r="L243" t="s" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M243" s="12">
         <v>0</v>
@@ -10118,9 +10148,9 @@
       <c r="O243" s="16"/>
       <c r="P243" s="16"/>
     </row>
-    <row r="244" ht="17" customHeight="1">
+    <row r="244" ht="24.75" customHeight="1">
       <c r="A244" s="7">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B244" s="7">
         <v>2</v>
@@ -10142,10 +10172,10 @@
         <v>17</v>
       </c>
       <c r="K244" t="s" s="10">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L244" t="s" s="15">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M244" s="12">
         <v>1</v>
@@ -10157,10 +10187,10 @@
         <v>2</v>
       </c>
       <c r="P244" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="245" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" ht="24.75" customHeight="1">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -10173,7 +10203,7 @@
       <c r="J245" s="13"/>
       <c r="K245" s="18"/>
       <c r="L245" t="s" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M245" s="12">
         <v>0</v>
@@ -10182,7 +10212,7 @@
       <c r="O245" s="13"/>
       <c r="P245" s="13"/>
     </row>
-    <row r="246" ht="16" customHeight="1">
+    <row r="246" ht="24.75" customHeight="1">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -10195,7 +10225,7 @@
       <c r="J246" s="13"/>
       <c r="K246" s="18"/>
       <c r="L246" t="s" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M246" s="12">
         <v>0</v>
@@ -10204,7 +10234,7 @@
       <c r="O246" s="13"/>
       <c r="P246" s="13"/>
     </row>
-    <row r="247" ht="16" customHeight="1">
+    <row r="247" ht="24.75" customHeight="1">
       <c r="A247" s="16"/>
       <c r="B247" s="16"/>
       <c r="C247" s="16"/>
@@ -10217,7 +10247,7 @@
       <c r="J247" s="16"/>
       <c r="K247" s="19"/>
       <c r="L247" t="s" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M247" s="12">
         <v>0</v>
@@ -10226,9 +10256,9 @@
       <c r="O247" s="16"/>
       <c r="P247" s="16"/>
     </row>
-    <row r="248" ht="16" customHeight="1">
+    <row r="248" ht="24.75" customHeight="1">
       <c r="A248" s="7">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B248" s="7">
         <v>2</v>
@@ -10250,10 +10280,10 @@
         <v>18</v>
       </c>
       <c r="K248" t="s" s="10">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L248" t="s" s="11">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="M248" s="12">
         <v>0</v>
@@ -10265,10 +10295,10 @@
         <v>3</v>
       </c>
       <c r="P248" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="249" ht="17" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" ht="24.75" customHeight="1">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -10281,7 +10311,7 @@
       <c r="J249" s="13"/>
       <c r="K249" s="14"/>
       <c r="L249" t="s" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M249" s="12">
         <v>0</v>
@@ -10290,7 +10320,7 @@
       <c r="O249" s="13"/>
       <c r="P249" s="13"/>
     </row>
-    <row r="250" ht="17" customHeight="1">
+    <row r="250" ht="24.75" customHeight="1">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -10312,7 +10342,7 @@
       <c r="O250" s="13"/>
       <c r="P250" s="13"/>
     </row>
-    <row r="251" ht="16" customHeight="1">
+    <row r="251" ht="24.75" customHeight="1">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
@@ -10334,9 +10364,9 @@
       <c r="O251" s="16"/>
       <c r="P251" s="16"/>
     </row>
-    <row r="252" ht="16" customHeight="1">
+    <row r="252" ht="24.75" customHeight="1">
       <c r="A252" s="7">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B252" s="7">
         <v>2</v>
@@ -10373,10 +10403,10 @@
         <v>4</v>
       </c>
       <c r="P252" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="253" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" ht="24.75" customHeight="1">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -10398,7 +10428,7 @@
       <c r="O253" s="13"/>
       <c r="P253" s="13"/>
     </row>
-    <row r="254" ht="16" customHeight="1">
+    <row r="254" ht="24.75" customHeight="1">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -10420,7 +10450,7 @@
       <c r="O254" s="13"/>
       <c r="P254" s="13"/>
     </row>
-    <row r="255" ht="16" customHeight="1">
+    <row r="255" ht="24.75" customHeight="1">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
@@ -10442,9 +10472,9 @@
       <c r="O255" s="16"/>
       <c r="P255" s="16"/>
     </row>
-    <row r="256" ht="17" customHeight="1">
+    <row r="256" ht="24.75" customHeight="1">
       <c r="A256" s="7">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B256" s="7">
         <v>2</v>
@@ -10469,7 +10499,7 @@
         <v>322</v>
       </c>
       <c r="L256" t="s" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M256" s="12">
         <v>0</v>
@@ -10481,10 +10511,10 @@
         <v>5</v>
       </c>
       <c r="P256" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="257" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" ht="24.75" customHeight="1">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -10506,7 +10536,7 @@
       <c r="O257" s="13"/>
       <c r="P257" s="13"/>
     </row>
-    <row r="258" ht="16" customHeight="1">
+    <row r="258" ht="24.75" customHeight="1">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -10528,7 +10558,7 @@
       <c r="O258" s="13"/>
       <c r="P258" s="13"/>
     </row>
-    <row r="259" ht="16" customHeight="1">
+    <row r="259" ht="24.75" customHeight="1">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
@@ -10541,7 +10571,7 @@
       <c r="J259" s="16"/>
       <c r="K259" s="17"/>
       <c r="L259" t="s" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M259" s="12">
         <v>0</v>
@@ -10550,9 +10580,9 @@
       <c r="O259" s="16"/>
       <c r="P259" s="16"/>
     </row>
-    <row r="260" ht="16" customHeight="1">
+    <row r="260" ht="24.75" customHeight="1">
       <c r="A260" s="7">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B260" s="7">
         <v>3</v>
@@ -10589,10 +10619,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="261" ht="17" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" ht="24.75" customHeight="1">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -10605,7 +10635,7 @@
       <c r="J261" s="13"/>
       <c r="K261" s="14"/>
       <c r="L261" t="s" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M261" s="12">
         <v>0</v>
@@ -10614,7 +10644,7 @@
       <c r="O261" s="13"/>
       <c r="P261" s="13"/>
     </row>
-    <row r="262" ht="16" customHeight="1">
+    <row r="262" ht="24.75" customHeight="1">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -10636,7 +10666,7 @@
       <c r="O262" s="13"/>
       <c r="P262" s="13"/>
     </row>
-    <row r="263" ht="16" customHeight="1">
+    <row r="263" ht="24.75" customHeight="1">
       <c r="A263" s="16"/>
       <c r="B263" s="16"/>
       <c r="C263" s="16"/>
@@ -10658,9 +10688,9 @@
       <c r="O263" s="16"/>
       <c r="P263" s="16"/>
     </row>
-    <row r="264" ht="16" customHeight="1">
+    <row r="264" ht="24.75" customHeight="1">
       <c r="A264" s="7">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B264" s="7">
         <v>3</v>
@@ -10697,10 +10727,10 @@
         <v>2</v>
       </c>
       <c r="P264" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="265" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" ht="24.75" customHeight="1">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -10722,7 +10752,7 @@
       <c r="O265" s="13"/>
       <c r="P265" s="13"/>
     </row>
-    <row r="266" ht="16" customHeight="1">
+    <row r="266" ht="24.75" customHeight="1">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -10744,7 +10774,7 @@
       <c r="O266" s="13"/>
       <c r="P266" s="13"/>
     </row>
-    <row r="267" ht="16" customHeight="1">
+    <row r="267" ht="24.75" customHeight="1">
       <c r="A267" s="16"/>
       <c r="B267" s="16"/>
       <c r="C267" s="16"/>
@@ -10766,9 +10796,9 @@
       <c r="O267" s="16"/>
       <c r="P267" s="16"/>
     </row>
-    <row r="268" ht="16" customHeight="1">
+    <row r="268" ht="24.75" customHeight="1">
       <c r="A268" s="7">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B268" s="7">
         <v>3</v>
@@ -10805,10 +10835,10 @@
         <v>3</v>
       </c>
       <c r="P268" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="269" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" ht="24.75" customHeight="1">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -10830,7 +10860,7 @@
       <c r="O269" s="13"/>
       <c r="P269" s="13"/>
     </row>
-    <row r="270" ht="17" customHeight="1">
+    <row r="270" ht="24.75" customHeight="1">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -10852,7 +10882,7 @@
       <c r="O270" s="13"/>
       <c r="P270" s="13"/>
     </row>
-    <row r="271" ht="16" customHeight="1">
+    <row r="271" ht="24.75" customHeight="1">
       <c r="A271" s="16"/>
       <c r="B271" s="16"/>
       <c r="C271" s="16"/>
@@ -10874,9 +10904,9 @@
       <c r="O271" s="16"/>
       <c r="P271" s="16"/>
     </row>
-    <row r="272" ht="16" customHeight="1">
+    <row r="272" ht="24.75" customHeight="1">
       <c r="A272" s="7">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B272" s="7">
         <v>3</v>
@@ -10901,7 +10931,7 @@
         <v>338</v>
       </c>
       <c r="L272" t="s" s="15">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M272" s="12">
         <v>1</v>
@@ -10913,10 +10943,10 @@
         <v>4</v>
       </c>
       <c r="P272" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="273" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" ht="24.75" customHeight="1">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -10938,7 +10968,7 @@
       <c r="O273" s="13"/>
       <c r="P273" s="13"/>
     </row>
-    <row r="274" ht="16" customHeight="1">
+    <row r="274" ht="24.75" customHeight="1">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -10951,7 +10981,7 @@
       <c r="J274" s="13"/>
       <c r="K274" s="14"/>
       <c r="L274" t="s" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M274" s="12">
         <v>0</v>
@@ -10960,7 +10990,7 @@
       <c r="O274" s="13"/>
       <c r="P274" s="13"/>
     </row>
-    <row r="275" ht="16" customHeight="1">
+    <row r="275" ht="24.75" customHeight="1">
       <c r="A275" s="16"/>
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
@@ -10982,9 +11012,9 @@
       <c r="O275" s="16"/>
       <c r="P275" s="16"/>
     </row>
-    <row r="276" ht="16" customHeight="1">
+    <row r="276" ht="24.75" customHeight="1">
       <c r="A276" s="7">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B276" s="7">
         <v>3</v>
@@ -11021,10 +11051,10 @@
         <v>5</v>
       </c>
       <c r="P276" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="277" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" ht="24.75" customHeight="1">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -11046,7 +11076,7 @@
       <c r="O277" s="13"/>
       <c r="P277" s="13"/>
     </row>
-    <row r="278" ht="17" customHeight="1">
+    <row r="278" ht="24.75" customHeight="1">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -11068,7 +11098,7 @@
       <c r="O278" s="13"/>
       <c r="P278" s="13"/>
     </row>
-    <row r="279" ht="16" customHeight="1">
+    <row r="279" ht="24.75" customHeight="1">
       <c r="A279" s="16"/>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
@@ -11090,9 +11120,9 @@
       <c r="O279" s="16"/>
       <c r="P279" s="16"/>
     </row>
-    <row r="280" ht="16" customHeight="1">
+    <row r="280" ht="24.75" customHeight="1">
       <c r="A280" s="7">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B280" s="7">
         <v>3</v>
@@ -11129,10 +11159,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="281" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="281" ht="24.75" customHeight="1">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -11154,7 +11184,7 @@
       <c r="O281" s="13"/>
       <c r="P281" s="13"/>
     </row>
-    <row r="282" ht="16" customHeight="1">
+    <row r="282" ht="24.75" customHeight="1">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -11176,7 +11206,7 @@
       <c r="O282" s="13"/>
       <c r="P282" s="13"/>
     </row>
-    <row r="283" ht="16" customHeight="1">
+    <row r="283" ht="24.75" customHeight="1">
       <c r="A283" s="16"/>
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
@@ -11198,9 +11228,9 @@
       <c r="O283" s="16"/>
       <c r="P283" s="16"/>
     </row>
-    <row r="284" ht="16" customHeight="1">
+    <row r="284" ht="24.75" customHeight="1">
       <c r="A284" s="7">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B284" s="7">
         <v>3</v>
@@ -11237,10 +11267,10 @@
         <v>2</v>
       </c>
       <c r="P284" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="285" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" ht="24.75" customHeight="1">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -11262,7 +11292,7 @@
       <c r="O285" s="13"/>
       <c r="P285" s="13"/>
     </row>
-    <row r="286" ht="16" customHeight="1">
+    <row r="286" ht="24.75" customHeight="1">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -11284,7 +11314,7 @@
       <c r="O286" s="13"/>
       <c r="P286" s="13"/>
     </row>
-    <row r="287" ht="16" customHeight="1">
+    <row r="287" ht="24.75" customHeight="1">
       <c r="A287" s="16"/>
       <c r="B287" s="16"/>
       <c r="C287" s="16"/>
@@ -11306,9 +11336,9 @@
       <c r="O287" s="16"/>
       <c r="P287" s="16"/>
     </row>
-    <row r="288" ht="16" customHeight="1">
+    <row r="288" ht="24.75" customHeight="1">
       <c r="A288" s="7">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B288" s="7">
         <v>3</v>
@@ -11345,10 +11375,10 @@
         <v>3</v>
       </c>
       <c r="P288" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="289" ht="16" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" ht="24.75" customHeight="1">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -11370,7 +11400,7 @@
       <c r="O289" s="13"/>
       <c r="P289" s="13"/>
     </row>
-    <row r="290" ht="16" customHeight="1">
+    <row r="290" ht="24.75" customHeight="1">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -11392,7 +11422,7 @@
       <c r="O290" s="13"/>
       <c r="P290" s="13"/>
     </row>
-    <row r="291" ht="16" customHeight="1">
+    <row r="291" ht="24.75" customHeight="1">
       <c r="A291" s="16"/>
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
@@ -11414,9 +11444,9 @@
       <c r="O291" s="16"/>
       <c r="P291" s="16"/>
     </row>
-    <row r="292" ht="17" customHeight="1">
+    <row r="292" ht="24.75" customHeight="1">
       <c r="A292" s="7">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B292" s="7">
         <v>3</v>
@@ -11453,10 +11483,10 @@
         <v>4</v>
       </c>
       <c r="P292" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="293" ht="17" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" ht="24.75" customHeight="1">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -11478,7 +11508,7 @@
       <c r="O293" s="13"/>
       <c r="P293" s="13"/>
     </row>
-    <row r="294" ht="17" customHeight="1">
+    <row r="294" ht="24.75" customHeight="1">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -11500,7 +11530,7 @@
       <c r="O294" s="13"/>
       <c r="P294" s="13"/>
     </row>
-    <row r="295" ht="17" customHeight="1">
+    <row r="295" ht="24.75" customHeight="1">
       <c r="A295" s="16"/>
       <c r="B295" s="16"/>
       <c r="C295" s="16"/>
@@ -11522,9 +11552,9 @@
       <c r="O295" s="16"/>
       <c r="P295" s="16"/>
     </row>
-    <row r="296" ht="15" customHeight="1">
+    <row r="296" ht="24.75" customHeight="1">
       <c r="A296" s="7">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B296" s="7">
         <v>3</v>
@@ -11561,10 +11591,10 @@
         <v>5</v>
       </c>
       <c r="P296" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" ht="24.75" customHeight="1">
       <c r="A297" s="16"/>
       <c r="B297" s="16"/>
       <c r="C297" s="16"/>
@@ -11586,9 +11616,9 @@
       <c r="O297" s="16"/>
       <c r="P297" s="16"/>
     </row>
-    <row r="298" ht="17" customHeight="1">
+    <row r="298" ht="24.75" customHeight="1">
       <c r="A298" s="7">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B298" s="7">
         <v>4</v>
@@ -11625,10 +11655,10 @@
         <v>1</v>
       </c>
       <c r="P298" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="299" ht="17" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" ht="24.75" customHeight="1">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -11650,7 +11680,7 @@
       <c r="O299" s="13"/>
       <c r="P299" s="13"/>
     </row>
-    <row r="300" ht="17" customHeight="1">
+    <row r="300" ht="24.75" customHeight="1">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -11672,7 +11702,7 @@
       <c r="O300" s="13"/>
       <c r="P300" s="13"/>
     </row>
-    <row r="301" ht="17" customHeight="1">
+    <row r="301" ht="24.75" customHeight="1">
       <c r="A301" s="16"/>
       <c r="B301" s="16"/>
       <c r="C301" s="16"/>
@@ -11694,9 +11724,9 @@
       <c r="O301" s="16"/>
       <c r="P301" s="16"/>
     </row>
-    <row r="302" ht="15" customHeight="1">
+    <row r="302" ht="24.75" customHeight="1">
       <c r="A302" s="7">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B302" s="7">
         <v>4</v>
@@ -11733,10 +11763,10 @@
         <v>2</v>
       </c>
       <c r="P302" t="s" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="303" ht="24.75" customHeight="1">
       <c r="A303" s="16"/>
       <c r="B303" s="16"/>
       <c r="C303" s="16"/>
@@ -11758,9 +11788,9 @@
       <c r="O303" s="16"/>
       <c r="P303" s="16"/>
     </row>
-    <row r="304" ht="16" customHeight="1">
+    <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="7">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B304" s="7">
         <v>4</v>
@@ -11797,7 +11827,7 @@
         <v>3</v>
       </c>
       <c r="P304" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" ht="16" customHeight="1">
@@ -11866,9 +11896,9 @@
       <c r="O307" s="16"/>
       <c r="P307" s="16"/>
     </row>
-    <row r="308" ht="15" customHeight="1">
+    <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B308" s="7">
         <v>4</v>
@@ -11905,7 +11935,7 @@
         <v>4</v>
       </c>
       <c r="P308" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" ht="15" customHeight="1">
@@ -11930,9 +11960,9 @@
       <c r="O309" s="16"/>
       <c r="P309" s="16"/>
     </row>
-    <row r="310" ht="16" customHeight="1">
+    <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="7">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B310" s="7">
         <v>4</v>
@@ -11969,7 +11999,7 @@
         <v>5</v>
       </c>
       <c r="P310" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" ht="16" customHeight="1">
@@ -12038,9 +12068,9 @@
       <c r="O313" s="16"/>
       <c r="P313" s="16"/>
     </row>
-    <row r="314" ht="16" customHeight="1">
+    <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="7">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B314" s="7">
         <v>4</v>
@@ -12077,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" ht="17" customHeight="1">
@@ -12091,7 +12121,7 @@
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
       <c r="J315" s="13"/>
-      <c r="K315" s="45"/>
+      <c r="K315" s="42"/>
       <c r="L315" t="s" s="11">
         <v>391</v>
       </c>
@@ -12113,7 +12143,7 @@
       <c r="H316" s="13"/>
       <c r="I316" s="13"/>
       <c r="J316" s="13"/>
-      <c r="K316" s="45"/>
+      <c r="K316" s="42"/>
       <c r="L316" t="s" s="15">
         <v>392</v>
       </c>
@@ -12135,7 +12165,7 @@
       <c r="H317" s="16"/>
       <c r="I317" s="16"/>
       <c r="J317" s="16"/>
-      <c r="K317" s="45"/>
+      <c r="K317" s="42"/>
       <c r="L317" t="s" s="11">
         <v>393</v>
       </c>
@@ -12146,9 +12176,9 @@
       <c r="O317" s="16"/>
       <c r="P317" s="16"/>
     </row>
-    <row r="318" ht="16" customHeight="1">
+    <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="7">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B318" s="7">
         <v>4</v>
@@ -12185,7 +12215,7 @@
         <v>2</v>
       </c>
       <c r="P318" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" ht="16" customHeight="1">
@@ -12256,7 +12286,7 @@
     </row>
     <row r="322" ht="15" customHeight="1">
       <c r="A322" s="7">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B322" s="7">
         <v>4</v>
@@ -12281,7 +12311,7 @@
         <v>398</v>
       </c>
       <c r="L322" t="s" s="15">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M322" s="12">
         <v>1</v>
@@ -12293,7 +12323,7 @@
         <v>3</v>
       </c>
       <c r="P322" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" ht="15" customHeight="1">
@@ -12307,9 +12337,9 @@
       <c r="H323" s="16"/>
       <c r="I323" s="16"/>
       <c r="J323" s="16"/>
-      <c r="K323" s="45"/>
+      <c r="K323" s="42"/>
       <c r="L323" t="s" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M323" s="12">
         <v>0</v>
@@ -12318,9 +12348,9 @@
       <c r="O323" s="16"/>
       <c r="P323" s="16"/>
     </row>
-    <row r="324" ht="17" customHeight="1">
+    <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="7">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B324" s="7">
         <v>4</v>
@@ -12357,7 +12387,7 @@
         <v>4</v>
       </c>
       <c r="P324" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="325" ht="17" customHeight="1">
@@ -12417,7 +12447,7 @@
       <c r="J327" s="16"/>
       <c r="K327" s="17"/>
       <c r="L327" t="s" s="15">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M327" s="12">
         <v>1</v>
@@ -12428,7 +12458,7 @@
     </row>
     <row r="328" ht="13.5" customHeight="1">
       <c r="A328" s="7">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B328" s="7">
         <v>4</v>
@@ -12452,7 +12482,7 @@
       <c r="K328" t="s" s="10">
         <v>402</v>
       </c>
-      <c r="L328" t="s" s="46">
+      <c r="L328" t="s" s="43">
         <v>403</v>
       </c>
       <c r="M328" s="12">
@@ -12465,7 +12495,7 @@
         <v>5</v>
       </c>
       <c r="P328" t="s" s="8">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" ht="13.5" customHeight="1">
@@ -12480,7 +12510,7 @@
       <c r="I329" s="13"/>
       <c r="J329" s="13"/>
       <c r="K329" s="14"/>
-      <c r="L329" t="s" s="47">
+      <c r="L329" t="s" s="44">
         <v>404</v>
       </c>
       <c r="M329" s="12">
@@ -12502,7 +12532,7 @@
       <c r="I330" s="13"/>
       <c r="J330" s="13"/>
       <c r="K330" s="14"/>
-      <c r="L330" t="s" s="46">
+      <c r="L330" t="s" s="43">
         <v>405</v>
       </c>
       <c r="M330" s="12">
@@ -12524,7 +12554,7 @@
       <c r="I331" s="16"/>
       <c r="J331" s="16"/>
       <c r="K331" s="17"/>
-      <c r="L331" t="s" s="46">
+      <c r="L331" t="s" s="43">
         <v>406</v>
       </c>
       <c r="M331" s="12">
@@ -12536,1020 +12566,56 @@
     </row>
   </sheetData>
   <mergeCells count="1155">
-    <mergeCell ref="P302:P303"/>
-    <mergeCell ref="P304:P307"/>
-    <mergeCell ref="P308:P309"/>
-    <mergeCell ref="P310:P313"/>
-    <mergeCell ref="P314:P317"/>
-    <mergeCell ref="P318:P321"/>
-    <mergeCell ref="P322:P323"/>
-    <mergeCell ref="P324:P327"/>
-    <mergeCell ref="P328:P331"/>
-    <mergeCell ref="P268:P271"/>
-    <mergeCell ref="P272:P275"/>
-    <mergeCell ref="P276:P279"/>
-    <mergeCell ref="P280:P283"/>
-    <mergeCell ref="P284:P287"/>
-    <mergeCell ref="P288:P291"/>
-    <mergeCell ref="P292:P295"/>
-    <mergeCell ref="P296:P297"/>
-    <mergeCell ref="P298:P301"/>
-    <mergeCell ref="O304:O307"/>
-    <mergeCell ref="O308:O309"/>
-    <mergeCell ref="O310:O313"/>
-    <mergeCell ref="O314:O317"/>
-    <mergeCell ref="O318:O321"/>
-    <mergeCell ref="O322:O323"/>
-    <mergeCell ref="O324:O327"/>
-    <mergeCell ref="O328:O331"/>
-    <mergeCell ref="P204:P207"/>
-    <mergeCell ref="P208:P211"/>
-    <mergeCell ref="P212:P215"/>
-    <mergeCell ref="P216:P219"/>
-    <mergeCell ref="P220:P223"/>
-    <mergeCell ref="P224:P227"/>
-    <mergeCell ref="P228:P231"/>
-    <mergeCell ref="P232:P235"/>
-    <mergeCell ref="P236:P239"/>
-    <mergeCell ref="P240:P243"/>
-    <mergeCell ref="P244:P247"/>
-    <mergeCell ref="P248:P251"/>
-    <mergeCell ref="P252:P255"/>
-    <mergeCell ref="P256:P259"/>
-    <mergeCell ref="P260:P263"/>
-    <mergeCell ref="P264:P267"/>
-    <mergeCell ref="O272:O275"/>
-    <mergeCell ref="O276:O279"/>
-    <mergeCell ref="O280:O283"/>
-    <mergeCell ref="O284:O287"/>
-    <mergeCell ref="O288:O291"/>
-    <mergeCell ref="O292:O295"/>
-    <mergeCell ref="O296:O297"/>
-    <mergeCell ref="O298:O301"/>
-    <mergeCell ref="O302:O303"/>
-    <mergeCell ref="N308:N309"/>
-    <mergeCell ref="N310:N313"/>
-    <mergeCell ref="N314:N317"/>
-    <mergeCell ref="N318:N321"/>
-    <mergeCell ref="N322:N323"/>
-    <mergeCell ref="N324:N327"/>
-    <mergeCell ref="N328:N331"/>
-    <mergeCell ref="O204:O207"/>
-    <mergeCell ref="O208:O211"/>
-    <mergeCell ref="O212:O215"/>
-    <mergeCell ref="O216:O219"/>
-    <mergeCell ref="O220:O223"/>
-    <mergeCell ref="O224:O227"/>
-    <mergeCell ref="O228:O231"/>
-    <mergeCell ref="O232:O235"/>
-    <mergeCell ref="O236:O239"/>
-    <mergeCell ref="O240:O243"/>
-    <mergeCell ref="O244:O247"/>
-    <mergeCell ref="O248:O251"/>
-    <mergeCell ref="O252:O255"/>
-    <mergeCell ref="O256:O259"/>
-    <mergeCell ref="O260:O263"/>
-    <mergeCell ref="O264:O267"/>
-    <mergeCell ref="O268:O271"/>
-    <mergeCell ref="N276:N279"/>
-    <mergeCell ref="N280:N283"/>
-    <mergeCell ref="N284:N287"/>
-    <mergeCell ref="N288:N291"/>
-    <mergeCell ref="N292:N295"/>
-    <mergeCell ref="N296:N297"/>
-    <mergeCell ref="N298:N301"/>
-    <mergeCell ref="N302:N303"/>
-    <mergeCell ref="N304:N307"/>
-    <mergeCell ref="N240:N243"/>
-    <mergeCell ref="N244:N247"/>
-    <mergeCell ref="N248:N251"/>
-    <mergeCell ref="N252:N255"/>
-    <mergeCell ref="N256:N259"/>
-    <mergeCell ref="N260:N263"/>
-    <mergeCell ref="N264:N267"/>
-    <mergeCell ref="N268:N271"/>
-    <mergeCell ref="N272:N275"/>
-    <mergeCell ref="N204:N207"/>
-    <mergeCell ref="N208:N211"/>
-    <mergeCell ref="N212:N215"/>
-    <mergeCell ref="N216:N219"/>
-    <mergeCell ref="N220:N223"/>
-    <mergeCell ref="N224:N227"/>
-    <mergeCell ref="N228:N231"/>
-    <mergeCell ref="N232:N235"/>
-    <mergeCell ref="N236:N239"/>
-    <mergeCell ref="A324:A327"/>
-    <mergeCell ref="B324:B327"/>
-    <mergeCell ref="C324:C327"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="F324:F327"/>
-    <mergeCell ref="G324:G327"/>
-    <mergeCell ref="H324:H327"/>
-    <mergeCell ref="I324:I327"/>
-    <mergeCell ref="A328:A331"/>
-    <mergeCell ref="B328:B331"/>
-    <mergeCell ref="C328:C331"/>
-    <mergeCell ref="D328:D331"/>
-    <mergeCell ref="F328:F331"/>
-    <mergeCell ref="G328:G331"/>
-    <mergeCell ref="H328:H331"/>
-    <mergeCell ref="I328:I331"/>
-    <mergeCell ref="A318:A321"/>
-    <mergeCell ref="B318:B321"/>
-    <mergeCell ref="C318:C321"/>
-    <mergeCell ref="D318:D321"/>
-    <mergeCell ref="F318:F321"/>
-    <mergeCell ref="G318:G321"/>
-    <mergeCell ref="H318:H321"/>
-    <mergeCell ref="I318:I321"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="E322:E323"/>
-    <mergeCell ref="F322:F323"/>
-    <mergeCell ref="G322:G323"/>
-    <mergeCell ref="H322:H323"/>
-    <mergeCell ref="I322:I323"/>
-    <mergeCell ref="A310:A313"/>
-    <mergeCell ref="B310:B313"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="D310:D313"/>
-    <mergeCell ref="F310:F313"/>
-    <mergeCell ref="G310:G313"/>
-    <mergeCell ref="H310:H313"/>
-    <mergeCell ref="I310:I313"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="F314:F317"/>
-    <mergeCell ref="G314:G317"/>
-    <mergeCell ref="H314:H317"/>
-    <mergeCell ref="I314:I317"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="B304:B307"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="D304:D307"/>
-    <mergeCell ref="F304:F307"/>
-    <mergeCell ref="G304:G307"/>
-    <mergeCell ref="H304:H307"/>
-    <mergeCell ref="I304:I307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="B308:B309"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="D308:D309"/>
-    <mergeCell ref="E308:E309"/>
-    <mergeCell ref="F308:F309"/>
-    <mergeCell ref="G308:G309"/>
-    <mergeCell ref="H308:H309"/>
-    <mergeCell ref="I308:I309"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="D302:D303"/>
-    <mergeCell ref="E302:E303"/>
-    <mergeCell ref="F302:F303"/>
-    <mergeCell ref="G302:G303"/>
-    <mergeCell ref="H302:H303"/>
-    <mergeCell ref="I302:I303"/>
-    <mergeCell ref="I296:I297"/>
-    <mergeCell ref="A298:A301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="C298:C301"/>
-    <mergeCell ref="D298:D301"/>
-    <mergeCell ref="F298:F301"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="H298:H301"/>
-    <mergeCell ref="I298:I301"/>
-    <mergeCell ref="A292:A295"/>
-    <mergeCell ref="B292:B295"/>
-    <mergeCell ref="C292:C295"/>
-    <mergeCell ref="D292:D295"/>
-    <mergeCell ref="F292:F295"/>
-    <mergeCell ref="G292:G295"/>
-    <mergeCell ref="H292:H295"/>
-    <mergeCell ref="I292:I295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="D296:D297"/>
-    <mergeCell ref="E296:E297"/>
-    <mergeCell ref="F296:F297"/>
-    <mergeCell ref="G296:G297"/>
-    <mergeCell ref="H296:H297"/>
-    <mergeCell ref="A284:A287"/>
-    <mergeCell ref="B284:B287"/>
-    <mergeCell ref="C284:C287"/>
-    <mergeCell ref="D284:D287"/>
-    <mergeCell ref="F284:F287"/>
-    <mergeCell ref="G284:G287"/>
-    <mergeCell ref="H284:H287"/>
-    <mergeCell ref="I284:I287"/>
-    <mergeCell ref="A288:A291"/>
-    <mergeCell ref="B288:B291"/>
-    <mergeCell ref="C288:C291"/>
-    <mergeCell ref="D288:D291"/>
-    <mergeCell ref="F288:F291"/>
-    <mergeCell ref="G288:G291"/>
-    <mergeCell ref="H288:H291"/>
-    <mergeCell ref="I288:I291"/>
-    <mergeCell ref="A276:A279"/>
-    <mergeCell ref="B276:B279"/>
-    <mergeCell ref="C276:C279"/>
-    <mergeCell ref="D276:D279"/>
-    <mergeCell ref="F276:F279"/>
-    <mergeCell ref="G276:G279"/>
-    <mergeCell ref="H276:H279"/>
-    <mergeCell ref="I276:I279"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="B280:B283"/>
-    <mergeCell ref="C280:C283"/>
-    <mergeCell ref="D280:D283"/>
-    <mergeCell ref="F280:F283"/>
-    <mergeCell ref="G280:G283"/>
-    <mergeCell ref="H280:H283"/>
-    <mergeCell ref="I280:I283"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="B268:B271"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="D268:D271"/>
-    <mergeCell ref="F268:F271"/>
-    <mergeCell ref="G268:G271"/>
-    <mergeCell ref="H268:H271"/>
-    <mergeCell ref="I268:I271"/>
-    <mergeCell ref="A272:A275"/>
-    <mergeCell ref="B272:B275"/>
-    <mergeCell ref="C272:C275"/>
-    <mergeCell ref="D272:D275"/>
-    <mergeCell ref="F272:F275"/>
-    <mergeCell ref="G272:G275"/>
-    <mergeCell ref="H272:H275"/>
-    <mergeCell ref="I272:I275"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="B260:B263"/>
-    <mergeCell ref="C260:C263"/>
-    <mergeCell ref="D260:D263"/>
-    <mergeCell ref="F260:F263"/>
-    <mergeCell ref="G260:G263"/>
-    <mergeCell ref="H260:H263"/>
-    <mergeCell ref="I260:I263"/>
-    <mergeCell ref="A264:A267"/>
-    <mergeCell ref="B264:B267"/>
-    <mergeCell ref="C264:C267"/>
-    <mergeCell ref="D264:D267"/>
-    <mergeCell ref="F264:F267"/>
-    <mergeCell ref="G264:G267"/>
-    <mergeCell ref="H264:H267"/>
-    <mergeCell ref="I264:I267"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="F252:F255"/>
-    <mergeCell ref="G252:G255"/>
-    <mergeCell ref="H252:H255"/>
-    <mergeCell ref="I252:I255"/>
-    <mergeCell ref="A256:A259"/>
-    <mergeCell ref="B256:B259"/>
-    <mergeCell ref="C256:C259"/>
-    <mergeCell ref="D256:D259"/>
-    <mergeCell ref="F256:F259"/>
-    <mergeCell ref="G256:G259"/>
-    <mergeCell ref="H256:H259"/>
-    <mergeCell ref="I256:I259"/>
-    <mergeCell ref="A244:A247"/>
-    <mergeCell ref="B244:B247"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="D244:D247"/>
-    <mergeCell ref="F244:F247"/>
-    <mergeCell ref="G244:G247"/>
-    <mergeCell ref="H244:H247"/>
-    <mergeCell ref="I244:I247"/>
-    <mergeCell ref="A248:A251"/>
-    <mergeCell ref="B248:B251"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="D248:D251"/>
-    <mergeCell ref="F248:F251"/>
-    <mergeCell ref="G248:G251"/>
-    <mergeCell ref="H248:H251"/>
-    <mergeCell ref="I248:I251"/>
-    <mergeCell ref="A236:A239"/>
-    <mergeCell ref="B236:B239"/>
-    <mergeCell ref="C236:C239"/>
-    <mergeCell ref="D236:D239"/>
-    <mergeCell ref="F236:F239"/>
-    <mergeCell ref="G236:G239"/>
-    <mergeCell ref="H236:H239"/>
-    <mergeCell ref="I236:I239"/>
-    <mergeCell ref="A240:A243"/>
-    <mergeCell ref="B240:B243"/>
-    <mergeCell ref="C240:C243"/>
-    <mergeCell ref="D240:D243"/>
-    <mergeCell ref="F240:F243"/>
-    <mergeCell ref="G240:G243"/>
-    <mergeCell ref="H240:H243"/>
-    <mergeCell ref="I240:I243"/>
-    <mergeCell ref="A228:A231"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="C228:C231"/>
-    <mergeCell ref="D228:D231"/>
-    <mergeCell ref="F228:F231"/>
-    <mergeCell ref="G228:G231"/>
-    <mergeCell ref="H228:H231"/>
-    <mergeCell ref="I228:I231"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="C232:C235"/>
-    <mergeCell ref="D232:D235"/>
-    <mergeCell ref="F232:F235"/>
-    <mergeCell ref="G232:G235"/>
-    <mergeCell ref="H232:H235"/>
-    <mergeCell ref="I232:I235"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="F220:F223"/>
-    <mergeCell ref="G220:G223"/>
-    <mergeCell ref="H220:H223"/>
-    <mergeCell ref="I220:I223"/>
-    <mergeCell ref="A224:A227"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="C224:C227"/>
-    <mergeCell ref="D224:D227"/>
-    <mergeCell ref="F224:F227"/>
-    <mergeCell ref="G224:G227"/>
-    <mergeCell ref="H224:H227"/>
-    <mergeCell ref="I224:I227"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="C212:C215"/>
-    <mergeCell ref="D212:D215"/>
-    <mergeCell ref="F212:F215"/>
-    <mergeCell ref="G212:G215"/>
-    <mergeCell ref="H212:H215"/>
-    <mergeCell ref="I212:I215"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="D216:D219"/>
-    <mergeCell ref="F216:F219"/>
-    <mergeCell ref="G216:G219"/>
-    <mergeCell ref="H216:H219"/>
-    <mergeCell ref="I216:I219"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="C204:C207"/>
-    <mergeCell ref="D204:D207"/>
-    <mergeCell ref="F204:F207"/>
-    <mergeCell ref="G204:G207"/>
-    <mergeCell ref="H204:H207"/>
-    <mergeCell ref="I204:I207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="D208:D211"/>
-    <mergeCell ref="F208:F211"/>
-    <mergeCell ref="G208:G211"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="I208:I211"/>
-    <mergeCell ref="J298:J301"/>
-    <mergeCell ref="J302:J303"/>
-    <mergeCell ref="J304:J307"/>
-    <mergeCell ref="J324:J327"/>
-    <mergeCell ref="J328:J331"/>
-    <mergeCell ref="J308:J309"/>
-    <mergeCell ref="J310:J313"/>
-    <mergeCell ref="J314:J317"/>
-    <mergeCell ref="J318:J321"/>
-    <mergeCell ref="J322:J323"/>
-    <mergeCell ref="J264:J267"/>
-    <mergeCell ref="J268:J271"/>
-    <mergeCell ref="J272:J275"/>
-    <mergeCell ref="J276:J279"/>
-    <mergeCell ref="J280:J283"/>
-    <mergeCell ref="J284:J287"/>
-    <mergeCell ref="J288:J291"/>
-    <mergeCell ref="J292:J295"/>
-    <mergeCell ref="J296:J297"/>
-    <mergeCell ref="K304:K307"/>
-    <mergeCell ref="K308:K309"/>
-    <mergeCell ref="K310:K313"/>
-    <mergeCell ref="K314:K317"/>
-    <mergeCell ref="K318:K321"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="K324:K327"/>
-    <mergeCell ref="K328:K331"/>
-    <mergeCell ref="J204:J207"/>
-    <mergeCell ref="J208:J211"/>
-    <mergeCell ref="J212:J215"/>
-    <mergeCell ref="J216:J219"/>
-    <mergeCell ref="J220:J223"/>
-    <mergeCell ref="J224:J227"/>
-    <mergeCell ref="J228:J231"/>
-    <mergeCell ref="J232:J235"/>
-    <mergeCell ref="J236:J239"/>
-    <mergeCell ref="J240:J243"/>
-    <mergeCell ref="J244:J247"/>
-    <mergeCell ref="J248:J251"/>
-    <mergeCell ref="J252:J255"/>
-    <mergeCell ref="J256:J259"/>
-    <mergeCell ref="J260:J263"/>
-    <mergeCell ref="K280:K283"/>
-    <mergeCell ref="K284:K287"/>
-    <mergeCell ref="K288:K291"/>
-    <mergeCell ref="K292:K295"/>
-    <mergeCell ref="K296:K297"/>
-    <mergeCell ref="K298:K301"/>
-    <mergeCell ref="K302:K303"/>
-    <mergeCell ref="K244:K247"/>
-    <mergeCell ref="K248:K251"/>
-    <mergeCell ref="K252:K255"/>
-    <mergeCell ref="K256:K259"/>
-    <mergeCell ref="K260:K263"/>
-    <mergeCell ref="K264:K267"/>
-    <mergeCell ref="K268:K271"/>
-    <mergeCell ref="K272:K275"/>
-    <mergeCell ref="K276:K279"/>
-    <mergeCell ref="K208:K211"/>
-    <mergeCell ref="K212:K215"/>
-    <mergeCell ref="K216:K219"/>
-    <mergeCell ref="K220:K223"/>
-    <mergeCell ref="K224:K227"/>
-    <mergeCell ref="K228:K231"/>
-    <mergeCell ref="K232:K235"/>
-    <mergeCell ref="K236:K239"/>
-    <mergeCell ref="K240:K243"/>
-    <mergeCell ref="J200:J203"/>
-    <mergeCell ref="J94:J97"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="J122:J125"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="J130:J133"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="K204:K207"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="I130:I133"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="I170:I173"/>
-    <mergeCell ref="I174:I177"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
     <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J86:J89"/>
-    <mergeCell ref="J90:J93"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="E150:E153"/>
-    <mergeCell ref="F150:F153"/>
-    <mergeCell ref="G150:G153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="E154:E157"/>
-    <mergeCell ref="F154:F157"/>
-    <mergeCell ref="G154:G157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="H150:H153"/>
-    <mergeCell ref="H154:H157"/>
-    <mergeCell ref="I150:I153"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="J150:J153"/>
-    <mergeCell ref="D194:D197"/>
-    <mergeCell ref="E194:E197"/>
-    <mergeCell ref="F194:F197"/>
-    <mergeCell ref="G194:G197"/>
-    <mergeCell ref="K194:K197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="G198:G199"/>
-    <mergeCell ref="K198:K199"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="H194:H197"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="I194:I197"/>
-    <mergeCell ref="I198:I199"/>
-    <mergeCell ref="J198:J199"/>
-    <mergeCell ref="J194:J197"/>
-    <mergeCell ref="K110:K113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="K114:K117"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="I114:I117"/>
-    <mergeCell ref="J114:J117"/>
-    <mergeCell ref="J110:J113"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
     <mergeCell ref="K6:K9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G14:G17"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="K56:K59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="K60:K63"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="K90:K93"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="K82:K85"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="J82:J85"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="H200:H203"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="F200:F203"/>
-    <mergeCell ref="K94:K97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="K200:K203"/>
-    <mergeCell ref="G200:G203"/>
-    <mergeCell ref="D200:D203"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="I200:I203"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="I106:I109"/>
-    <mergeCell ref="J106:J109"/>
-    <mergeCell ref="K106:K109"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="K122:K125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="G142:G145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="G146:G149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="G170:G173"/>
-    <mergeCell ref="K170:K173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="D174:D177"/>
-    <mergeCell ref="E174:E177"/>
-    <mergeCell ref="F174:F177"/>
-    <mergeCell ref="G174:G177"/>
-    <mergeCell ref="K174:K177"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="H170:H173"/>
-    <mergeCell ref="H174:H177"/>
-    <mergeCell ref="J174:J177"/>
-    <mergeCell ref="J170:J173"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="E178:E181"/>
-    <mergeCell ref="F178:F181"/>
-    <mergeCell ref="G178:G181"/>
-    <mergeCell ref="K178:K181"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F185"/>
-    <mergeCell ref="G182:G185"/>
-    <mergeCell ref="K182:K185"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="H178:H181"/>
-    <mergeCell ref="H182:H185"/>
-    <mergeCell ref="I178:I181"/>
-    <mergeCell ref="I182:I185"/>
-    <mergeCell ref="J182:J185"/>
-    <mergeCell ref="J178:J181"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D189"/>
-    <mergeCell ref="E186:E189"/>
-    <mergeCell ref="F186:F189"/>
-    <mergeCell ref="G186:G189"/>
-    <mergeCell ref="K186:K189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="F190:F193"/>
-    <mergeCell ref="G190:G193"/>
-    <mergeCell ref="K190:K193"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="H186:H189"/>
-    <mergeCell ref="H190:H193"/>
-    <mergeCell ref="I186:I189"/>
-    <mergeCell ref="I190:I193"/>
-    <mergeCell ref="J190:J193"/>
-    <mergeCell ref="J186:J189"/>
-    <mergeCell ref="N200:N203"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="N118:N121"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N72:N75"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="N130:N133"/>
-    <mergeCell ref="N134:N137"/>
-    <mergeCell ref="N138:N141"/>
-    <mergeCell ref="N142:N145"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="N178:N181"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="O134:O137"/>
-    <mergeCell ref="O138:O141"/>
-    <mergeCell ref="O142:O145"/>
-    <mergeCell ref="O146:O149"/>
-    <mergeCell ref="O170:O173"/>
-    <mergeCell ref="O174:O177"/>
-    <mergeCell ref="O178:O181"/>
-    <mergeCell ref="O126:O129"/>
-    <mergeCell ref="O130:O133"/>
-    <mergeCell ref="O78:O81"/>
-    <mergeCell ref="O82:O85"/>
-    <mergeCell ref="O86:O89"/>
-    <mergeCell ref="O90:O93"/>
-    <mergeCell ref="O94:O97"/>
-    <mergeCell ref="O118:O121"/>
-    <mergeCell ref="O122:O125"/>
-    <mergeCell ref="P200:P203"/>
-    <mergeCell ref="P94:P97"/>
-    <mergeCell ref="P118:P121"/>
-    <mergeCell ref="P122:P125"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="P130:P133"/>
-    <mergeCell ref="P134:P137"/>
-    <mergeCell ref="P138:P141"/>
-    <mergeCell ref="O190:O193"/>
-    <mergeCell ref="O182:O185"/>
-    <mergeCell ref="O186:O189"/>
-    <mergeCell ref="P142:P145"/>
-    <mergeCell ref="P146:P149"/>
-    <mergeCell ref="P170:P173"/>
-    <mergeCell ref="P174:P177"/>
-    <mergeCell ref="O200:O203"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="P110:P113"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="P14:P17"/>
     <mergeCell ref="P18:P21"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="P22:P25"/>
-    <mergeCell ref="P56:P59"/>
-    <mergeCell ref="P78:P81"/>
-    <mergeCell ref="P82:P85"/>
-    <mergeCell ref="P86:P89"/>
-    <mergeCell ref="P90:P93"/>
-    <mergeCell ref="P194:P197"/>
-    <mergeCell ref="P198:P199"/>
-    <mergeCell ref="P150:P153"/>
-    <mergeCell ref="P154:P157"/>
-    <mergeCell ref="O150:O153"/>
-    <mergeCell ref="O154:O157"/>
-    <mergeCell ref="O110:O113"/>
-    <mergeCell ref="O114:O117"/>
-    <mergeCell ref="O194:O197"/>
-    <mergeCell ref="O198:O199"/>
-    <mergeCell ref="P178:P181"/>
-    <mergeCell ref="P182:P185"/>
-    <mergeCell ref="P186:P189"/>
-    <mergeCell ref="P190:P193"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="N198:N199"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="D22:D25"/>
@@ -13558,73 +12624,307 @@
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="P64:P67"/>
-    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
     <mergeCell ref="N26:N29"/>
     <mergeCell ref="O26:O29"/>
     <mergeCell ref="P26:P29"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="G30:G33"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
     <mergeCell ref="H30:H33"/>
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="J30:J33"/>
     <mergeCell ref="K30:K33"/>
     <mergeCell ref="N30:N33"/>
     <mergeCell ref="O30:O33"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
     <mergeCell ref="P38:P39"/>
-    <mergeCell ref="O34:O37"/>
-    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="N56:N59"/>
     <mergeCell ref="O56:O59"/>
-    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="P56:P59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="O64:O67"/>
+    <mergeCell ref="P64:P67"/>
+    <mergeCell ref="O60:O63"/>
+    <mergeCell ref="P60:P63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="E64:E67"/>
     <mergeCell ref="F64:F67"/>
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="H64:H67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="O64:O67"/>
-    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="K60:K63"/>
+    <mergeCell ref="N60:N63"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="K72:K75"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="P72:P75"/>
     <mergeCell ref="O68:O71"/>
     <mergeCell ref="P68:P71"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="K68:K71"/>
     <mergeCell ref="N68:N71"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="O78:O81"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="O86:O89"/>
+    <mergeCell ref="P86:P89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="O82:O85"/>
+    <mergeCell ref="P82:P85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="I82:I85"/>
+    <mergeCell ref="J82:J85"/>
+    <mergeCell ref="K82:K85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="J94:J97"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="O94:O97"/>
+    <mergeCell ref="P94:P97"/>
     <mergeCell ref="A98:A101"/>
     <mergeCell ref="B98:B101"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="D98:D101"/>
     <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="I98:I101"/>
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="O90:O93"/>
+    <mergeCell ref="P90:P93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="P102:P105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="I106:I109"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="J102:J105"/>
+    <mergeCell ref="K102:K105"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="O102:O105"/>
+    <mergeCell ref="N98:N101"/>
     <mergeCell ref="O98:O101"/>
     <mergeCell ref="P98:P101"/>
-    <mergeCell ref="O60:O63"/>
-    <mergeCell ref="P60:P63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="B102:B105"/>
     <mergeCell ref="C102:C105"/>
@@ -13632,8 +12932,176 @@
     <mergeCell ref="E102:E105"/>
     <mergeCell ref="F102:F105"/>
     <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="I102:I105"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="I98:I101"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="O110:O113"/>
+    <mergeCell ref="P110:P113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="J110:J113"/>
+    <mergeCell ref="K110:K113"/>
+    <mergeCell ref="J106:J109"/>
+    <mergeCell ref="K106:K109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="O106:O109"/>
+    <mergeCell ref="P106:P109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="N118:N121"/>
+    <mergeCell ref="O118:O121"/>
+    <mergeCell ref="P118:P121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="P114:P117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="I114:I117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="K114:K117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="O114:O117"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="P122:P125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="J122:J125"/>
+    <mergeCell ref="K122:K125"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="O122:O125"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="O134:O137"/>
+    <mergeCell ref="P134:P137"/>
+    <mergeCell ref="O130:O133"/>
+    <mergeCell ref="P130:P133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="I130:I133"/>
+    <mergeCell ref="J130:J133"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="O142:O145"/>
+    <mergeCell ref="P142:P145"/>
+    <mergeCell ref="O138:O141"/>
+    <mergeCell ref="P138:P141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="G142:G145"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="I150:I153"/>
+    <mergeCell ref="J150:J153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="O150:O153"/>
+    <mergeCell ref="P150:P153"/>
+    <mergeCell ref="O146:O149"/>
+    <mergeCell ref="P146:P149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="E150:E153"/>
+    <mergeCell ref="F150:F153"/>
+    <mergeCell ref="G150:G153"/>
+    <mergeCell ref="H150:H153"/>
+    <mergeCell ref="G146:G149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="I158:I161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="N158:N161"/>
+    <mergeCell ref="O158:O161"/>
+    <mergeCell ref="P158:P161"/>
+    <mergeCell ref="O154:O157"/>
+    <mergeCell ref="P154:P157"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="B158:B161"/>
     <mergeCell ref="C158:C161"/>
@@ -13642,36 +13110,24 @@
     <mergeCell ref="F158:F161"/>
     <mergeCell ref="G158:G161"/>
     <mergeCell ref="H158:H161"/>
-    <mergeCell ref="I158:I161"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F162:F165"/>
-    <mergeCell ref="G162:G165"/>
-    <mergeCell ref="H162:H165"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="O106:O109"/>
-    <mergeCell ref="P106:P109"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="N158:N161"/>
-    <mergeCell ref="O158:O161"/>
-    <mergeCell ref="P158:P161"/>
-    <mergeCell ref="J102:J105"/>
-    <mergeCell ref="K102:K105"/>
-    <mergeCell ref="O102:O105"/>
-    <mergeCell ref="P102:P105"/>
-    <mergeCell ref="P114:P117"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="H154:H157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D157"/>
+    <mergeCell ref="E154:E157"/>
+    <mergeCell ref="F154:F157"/>
+    <mergeCell ref="I166:I169"/>
+    <mergeCell ref="J166:J169"/>
+    <mergeCell ref="K166:K169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="O166:O169"/>
+    <mergeCell ref="P166:P169"/>
     <mergeCell ref="O162:O165"/>
     <mergeCell ref="P162:P165"/>
     <mergeCell ref="A166:A169"/>
@@ -13682,15 +13138,589 @@
     <mergeCell ref="F166:F169"/>
     <mergeCell ref="G166:G169"/>
     <mergeCell ref="H166:H169"/>
-    <mergeCell ref="I166:I169"/>
-    <mergeCell ref="J166:J169"/>
-    <mergeCell ref="K166:K169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="O166:O169"/>
-    <mergeCell ref="P166:P169"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="H162:H165"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="N162:N165"/>
     <mergeCell ref="A162:A165"/>
     <mergeCell ref="B162:B165"/>
     <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F165"/>
+    <mergeCell ref="I174:I177"/>
+    <mergeCell ref="J174:J177"/>
+    <mergeCell ref="K174:K177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="O174:O177"/>
+    <mergeCell ref="P174:P177"/>
+    <mergeCell ref="O170:O173"/>
+    <mergeCell ref="P170:P173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F177"/>
+    <mergeCell ref="G174:G177"/>
+    <mergeCell ref="H174:H177"/>
+    <mergeCell ref="G170:G173"/>
+    <mergeCell ref="H170:H173"/>
+    <mergeCell ref="I170:I173"/>
+    <mergeCell ref="J170:J173"/>
+    <mergeCell ref="K170:K173"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="I182:I185"/>
+    <mergeCell ref="J182:J185"/>
+    <mergeCell ref="K182:K185"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="O182:O185"/>
+    <mergeCell ref="P182:P185"/>
+    <mergeCell ref="O178:O181"/>
+    <mergeCell ref="P178:P181"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="G182:G185"/>
+    <mergeCell ref="H182:H185"/>
+    <mergeCell ref="G178:G181"/>
+    <mergeCell ref="H178:H181"/>
+    <mergeCell ref="I178:I181"/>
+    <mergeCell ref="J178:J181"/>
+    <mergeCell ref="K178:K181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="E178:E181"/>
+    <mergeCell ref="F178:F181"/>
+    <mergeCell ref="I190:I193"/>
+    <mergeCell ref="J190:J193"/>
+    <mergeCell ref="K190:K193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="O190:O193"/>
+    <mergeCell ref="P190:P193"/>
+    <mergeCell ref="O186:O189"/>
+    <mergeCell ref="P186:P189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="F190:F193"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H190:H193"/>
+    <mergeCell ref="G186:G189"/>
+    <mergeCell ref="H186:H189"/>
+    <mergeCell ref="I186:I189"/>
+    <mergeCell ref="J186:J189"/>
+    <mergeCell ref="K186:K189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D189"/>
+    <mergeCell ref="E186:E189"/>
+    <mergeCell ref="F186:F189"/>
+    <mergeCell ref="I198:I199"/>
+    <mergeCell ref="J198:J199"/>
+    <mergeCell ref="K198:K199"/>
+    <mergeCell ref="N198:N199"/>
+    <mergeCell ref="O198:O199"/>
+    <mergeCell ref="P198:P199"/>
+    <mergeCell ref="O194:O197"/>
+    <mergeCell ref="P194:P197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="G198:G199"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="G194:G197"/>
+    <mergeCell ref="H194:H197"/>
+    <mergeCell ref="I194:I197"/>
+    <mergeCell ref="J194:J197"/>
+    <mergeCell ref="K194:K197"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D197"/>
+    <mergeCell ref="E194:E197"/>
+    <mergeCell ref="F194:F197"/>
+    <mergeCell ref="K204:K207"/>
+    <mergeCell ref="N204:N207"/>
+    <mergeCell ref="O204:O207"/>
+    <mergeCell ref="P204:P207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="D208:D211"/>
+    <mergeCell ref="F208:F211"/>
+    <mergeCell ref="G208:G211"/>
+    <mergeCell ref="P200:P203"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="C204:C207"/>
+    <mergeCell ref="D204:D207"/>
+    <mergeCell ref="F204:F207"/>
+    <mergeCell ref="G204:G207"/>
+    <mergeCell ref="H204:H207"/>
+    <mergeCell ref="I204:I207"/>
+    <mergeCell ref="J204:J207"/>
+    <mergeCell ref="H200:H203"/>
+    <mergeCell ref="I200:I203"/>
+    <mergeCell ref="J200:J203"/>
+    <mergeCell ref="K200:K203"/>
+    <mergeCell ref="N200:N203"/>
+    <mergeCell ref="O200:O203"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="D200:D203"/>
+    <mergeCell ref="F200:F203"/>
+    <mergeCell ref="G200:G203"/>
+    <mergeCell ref="K212:K215"/>
+    <mergeCell ref="N212:N215"/>
+    <mergeCell ref="O212:O215"/>
+    <mergeCell ref="P212:P215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="D216:D219"/>
+    <mergeCell ref="F216:F219"/>
+    <mergeCell ref="G216:G219"/>
+    <mergeCell ref="P208:P211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="C212:C215"/>
+    <mergeCell ref="D212:D215"/>
+    <mergeCell ref="F212:F215"/>
+    <mergeCell ref="G212:G215"/>
+    <mergeCell ref="H212:H215"/>
+    <mergeCell ref="I212:I215"/>
+    <mergeCell ref="J212:J215"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="I208:I211"/>
+    <mergeCell ref="J208:J211"/>
+    <mergeCell ref="K208:K211"/>
+    <mergeCell ref="N208:N211"/>
+    <mergeCell ref="O208:O211"/>
+    <mergeCell ref="K220:K223"/>
+    <mergeCell ref="N220:N223"/>
+    <mergeCell ref="O220:O223"/>
+    <mergeCell ref="P220:P223"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="C224:C227"/>
+    <mergeCell ref="D224:D227"/>
+    <mergeCell ref="F224:F227"/>
+    <mergeCell ref="G224:G227"/>
+    <mergeCell ref="P216:P219"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="D220:D223"/>
+    <mergeCell ref="F220:F223"/>
+    <mergeCell ref="G220:G223"/>
+    <mergeCell ref="H220:H223"/>
+    <mergeCell ref="I220:I223"/>
+    <mergeCell ref="J220:J223"/>
+    <mergeCell ref="H216:H219"/>
+    <mergeCell ref="I216:I219"/>
+    <mergeCell ref="J216:J219"/>
+    <mergeCell ref="K216:K219"/>
+    <mergeCell ref="N216:N219"/>
+    <mergeCell ref="O216:O219"/>
+    <mergeCell ref="K228:K231"/>
+    <mergeCell ref="N228:N231"/>
+    <mergeCell ref="O228:O231"/>
+    <mergeCell ref="P228:P231"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="C232:C235"/>
+    <mergeCell ref="D232:D235"/>
+    <mergeCell ref="F232:F235"/>
+    <mergeCell ref="G232:G235"/>
+    <mergeCell ref="P224:P227"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="C228:C231"/>
+    <mergeCell ref="D228:D231"/>
+    <mergeCell ref="F228:F231"/>
+    <mergeCell ref="G228:G231"/>
+    <mergeCell ref="H228:H231"/>
+    <mergeCell ref="I228:I231"/>
+    <mergeCell ref="J228:J231"/>
+    <mergeCell ref="H224:H227"/>
+    <mergeCell ref="I224:I227"/>
+    <mergeCell ref="J224:J227"/>
+    <mergeCell ref="K224:K227"/>
+    <mergeCell ref="N224:N227"/>
+    <mergeCell ref="O224:O227"/>
+    <mergeCell ref="K236:K239"/>
+    <mergeCell ref="N236:N239"/>
+    <mergeCell ref="O236:O239"/>
+    <mergeCell ref="P236:P239"/>
+    <mergeCell ref="A240:A243"/>
+    <mergeCell ref="B240:B243"/>
+    <mergeCell ref="C240:C243"/>
+    <mergeCell ref="D240:D243"/>
+    <mergeCell ref="F240:F243"/>
+    <mergeCell ref="G240:G243"/>
+    <mergeCell ref="P232:P235"/>
+    <mergeCell ref="A236:A239"/>
+    <mergeCell ref="B236:B239"/>
+    <mergeCell ref="C236:C239"/>
+    <mergeCell ref="D236:D239"/>
+    <mergeCell ref="F236:F239"/>
+    <mergeCell ref="G236:G239"/>
+    <mergeCell ref="H236:H239"/>
+    <mergeCell ref="I236:I239"/>
+    <mergeCell ref="J236:J239"/>
+    <mergeCell ref="H232:H235"/>
+    <mergeCell ref="I232:I235"/>
+    <mergeCell ref="J232:J235"/>
+    <mergeCell ref="K232:K235"/>
+    <mergeCell ref="N232:N235"/>
+    <mergeCell ref="O232:O235"/>
+    <mergeCell ref="K244:K247"/>
+    <mergeCell ref="N244:N247"/>
+    <mergeCell ref="O244:O247"/>
+    <mergeCell ref="P244:P247"/>
+    <mergeCell ref="A248:A251"/>
+    <mergeCell ref="B248:B251"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="D248:D251"/>
+    <mergeCell ref="F248:F251"/>
+    <mergeCell ref="G248:G251"/>
+    <mergeCell ref="P240:P243"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="B244:B247"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="F244:F247"/>
+    <mergeCell ref="G244:G247"/>
+    <mergeCell ref="H244:H247"/>
+    <mergeCell ref="I244:I247"/>
+    <mergeCell ref="J244:J247"/>
+    <mergeCell ref="H240:H243"/>
+    <mergeCell ref="I240:I243"/>
+    <mergeCell ref="J240:J243"/>
+    <mergeCell ref="K240:K243"/>
+    <mergeCell ref="N240:N243"/>
+    <mergeCell ref="O240:O243"/>
+    <mergeCell ref="K252:K255"/>
+    <mergeCell ref="N252:N255"/>
+    <mergeCell ref="O252:O255"/>
+    <mergeCell ref="P252:P255"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="B256:B259"/>
+    <mergeCell ref="C256:C259"/>
+    <mergeCell ref="D256:D259"/>
+    <mergeCell ref="F256:F259"/>
+    <mergeCell ref="G256:G259"/>
+    <mergeCell ref="P248:P251"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="F252:F255"/>
+    <mergeCell ref="G252:G255"/>
+    <mergeCell ref="H252:H255"/>
+    <mergeCell ref="I252:I255"/>
+    <mergeCell ref="J252:J255"/>
+    <mergeCell ref="H248:H251"/>
+    <mergeCell ref="I248:I251"/>
+    <mergeCell ref="J248:J251"/>
+    <mergeCell ref="K248:K251"/>
+    <mergeCell ref="N248:N251"/>
+    <mergeCell ref="O248:O251"/>
+    <mergeCell ref="K260:K263"/>
+    <mergeCell ref="N260:N263"/>
+    <mergeCell ref="O260:O263"/>
+    <mergeCell ref="P260:P263"/>
+    <mergeCell ref="A264:A267"/>
+    <mergeCell ref="B264:B267"/>
+    <mergeCell ref="C264:C267"/>
+    <mergeCell ref="D264:D267"/>
+    <mergeCell ref="F264:F267"/>
+    <mergeCell ref="G264:G267"/>
+    <mergeCell ref="P256:P259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="B260:B263"/>
+    <mergeCell ref="C260:C263"/>
+    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="F260:F263"/>
+    <mergeCell ref="G260:G263"/>
+    <mergeCell ref="H260:H263"/>
+    <mergeCell ref="I260:I263"/>
+    <mergeCell ref="J260:J263"/>
+    <mergeCell ref="H256:H259"/>
+    <mergeCell ref="I256:I259"/>
+    <mergeCell ref="J256:J259"/>
+    <mergeCell ref="K256:K259"/>
+    <mergeCell ref="N256:N259"/>
+    <mergeCell ref="O256:O259"/>
+    <mergeCell ref="K268:K271"/>
+    <mergeCell ref="N268:N271"/>
+    <mergeCell ref="O268:O271"/>
+    <mergeCell ref="P268:P271"/>
+    <mergeCell ref="A272:A275"/>
+    <mergeCell ref="B272:B275"/>
+    <mergeCell ref="C272:C275"/>
+    <mergeCell ref="D272:D275"/>
+    <mergeCell ref="F272:F275"/>
+    <mergeCell ref="G272:G275"/>
+    <mergeCell ref="P264:P267"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="D268:D271"/>
+    <mergeCell ref="F268:F271"/>
+    <mergeCell ref="G268:G271"/>
+    <mergeCell ref="H268:H271"/>
+    <mergeCell ref="I268:I271"/>
+    <mergeCell ref="J268:J271"/>
+    <mergeCell ref="H264:H267"/>
+    <mergeCell ref="I264:I267"/>
+    <mergeCell ref="J264:J267"/>
+    <mergeCell ref="K264:K267"/>
+    <mergeCell ref="N264:N267"/>
+    <mergeCell ref="O264:O267"/>
+    <mergeCell ref="K276:K279"/>
+    <mergeCell ref="N276:N279"/>
+    <mergeCell ref="O276:O279"/>
+    <mergeCell ref="P276:P279"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="B280:B283"/>
+    <mergeCell ref="C280:C283"/>
+    <mergeCell ref="D280:D283"/>
+    <mergeCell ref="F280:F283"/>
+    <mergeCell ref="G280:G283"/>
+    <mergeCell ref="P272:P275"/>
+    <mergeCell ref="A276:A279"/>
+    <mergeCell ref="B276:B279"/>
+    <mergeCell ref="C276:C279"/>
+    <mergeCell ref="D276:D279"/>
+    <mergeCell ref="F276:F279"/>
+    <mergeCell ref="G276:G279"/>
+    <mergeCell ref="H276:H279"/>
+    <mergeCell ref="I276:I279"/>
+    <mergeCell ref="J276:J279"/>
+    <mergeCell ref="H272:H275"/>
+    <mergeCell ref="I272:I275"/>
+    <mergeCell ref="J272:J275"/>
+    <mergeCell ref="K272:K275"/>
+    <mergeCell ref="N272:N275"/>
+    <mergeCell ref="O272:O275"/>
+    <mergeCell ref="K284:K287"/>
+    <mergeCell ref="N284:N287"/>
+    <mergeCell ref="O284:O287"/>
+    <mergeCell ref="P284:P287"/>
+    <mergeCell ref="A288:A291"/>
+    <mergeCell ref="B288:B291"/>
+    <mergeCell ref="C288:C291"/>
+    <mergeCell ref="D288:D291"/>
+    <mergeCell ref="F288:F291"/>
+    <mergeCell ref="G288:G291"/>
+    <mergeCell ref="P280:P283"/>
+    <mergeCell ref="A284:A287"/>
+    <mergeCell ref="B284:B287"/>
+    <mergeCell ref="C284:C287"/>
+    <mergeCell ref="D284:D287"/>
+    <mergeCell ref="F284:F287"/>
+    <mergeCell ref="G284:G287"/>
+    <mergeCell ref="H284:H287"/>
+    <mergeCell ref="I284:I287"/>
+    <mergeCell ref="J284:J287"/>
+    <mergeCell ref="H280:H283"/>
+    <mergeCell ref="I280:I283"/>
+    <mergeCell ref="J280:J283"/>
+    <mergeCell ref="K280:K283"/>
+    <mergeCell ref="N280:N283"/>
+    <mergeCell ref="O280:O283"/>
+    <mergeCell ref="K292:K295"/>
+    <mergeCell ref="N292:N295"/>
+    <mergeCell ref="O292:O295"/>
+    <mergeCell ref="P292:P295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="D296:D297"/>
+    <mergeCell ref="E296:E297"/>
+    <mergeCell ref="F296:F297"/>
+    <mergeCell ref="P288:P291"/>
+    <mergeCell ref="A292:A295"/>
+    <mergeCell ref="B292:B295"/>
+    <mergeCell ref="C292:C295"/>
+    <mergeCell ref="D292:D295"/>
+    <mergeCell ref="F292:F295"/>
+    <mergeCell ref="G292:G295"/>
+    <mergeCell ref="H292:H295"/>
+    <mergeCell ref="I292:I295"/>
+    <mergeCell ref="J292:J295"/>
+    <mergeCell ref="H288:H291"/>
+    <mergeCell ref="I288:I291"/>
+    <mergeCell ref="J288:J291"/>
+    <mergeCell ref="K288:K291"/>
+    <mergeCell ref="N288:N291"/>
+    <mergeCell ref="O288:O291"/>
+    <mergeCell ref="J298:J301"/>
+    <mergeCell ref="K298:K301"/>
+    <mergeCell ref="N298:N301"/>
+    <mergeCell ref="O298:O301"/>
+    <mergeCell ref="P298:P301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="D302:D303"/>
+    <mergeCell ref="E302:E303"/>
+    <mergeCell ref="O296:O297"/>
+    <mergeCell ref="P296:P297"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="C298:C301"/>
+    <mergeCell ref="D298:D301"/>
+    <mergeCell ref="F298:F301"/>
+    <mergeCell ref="G298:G301"/>
+    <mergeCell ref="H298:H301"/>
+    <mergeCell ref="I298:I301"/>
+    <mergeCell ref="G296:G297"/>
+    <mergeCell ref="H296:H297"/>
+    <mergeCell ref="I296:I297"/>
+    <mergeCell ref="J296:J297"/>
+    <mergeCell ref="K296:K297"/>
+    <mergeCell ref="N296:N297"/>
+    <mergeCell ref="I304:I307"/>
+    <mergeCell ref="J304:J307"/>
+    <mergeCell ref="K304:K307"/>
+    <mergeCell ref="N304:N307"/>
+    <mergeCell ref="O304:O307"/>
+    <mergeCell ref="P304:P307"/>
+    <mergeCell ref="N302:N303"/>
+    <mergeCell ref="O302:O303"/>
+    <mergeCell ref="P302:P303"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="B304:B307"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="D304:D307"/>
+    <mergeCell ref="F304:F307"/>
+    <mergeCell ref="G304:G307"/>
+    <mergeCell ref="H304:H307"/>
+    <mergeCell ref="F302:F303"/>
+    <mergeCell ref="G302:G303"/>
+    <mergeCell ref="H302:H303"/>
+    <mergeCell ref="I302:I303"/>
+    <mergeCell ref="J302:J303"/>
+    <mergeCell ref="K302:K303"/>
+    <mergeCell ref="O308:O309"/>
+    <mergeCell ref="P308:P309"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="D310:D313"/>
+    <mergeCell ref="F310:F313"/>
+    <mergeCell ref="G310:G313"/>
+    <mergeCell ref="H310:H313"/>
+    <mergeCell ref="I310:I313"/>
+    <mergeCell ref="G308:G309"/>
+    <mergeCell ref="H308:H309"/>
+    <mergeCell ref="I308:I309"/>
+    <mergeCell ref="J308:J309"/>
+    <mergeCell ref="K308:K309"/>
+    <mergeCell ref="N308:N309"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="D308:D309"/>
+    <mergeCell ref="E308:E309"/>
+    <mergeCell ref="F308:F309"/>
+    <mergeCell ref="O314:O317"/>
+    <mergeCell ref="P314:P317"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="C318:C321"/>
+    <mergeCell ref="D318:D321"/>
+    <mergeCell ref="F318:F321"/>
+    <mergeCell ref="G318:G321"/>
+    <mergeCell ref="H318:H321"/>
+    <mergeCell ref="I318:I321"/>
+    <mergeCell ref="G314:G317"/>
+    <mergeCell ref="H314:H317"/>
+    <mergeCell ref="I314:I317"/>
+    <mergeCell ref="J314:J317"/>
+    <mergeCell ref="K314:K317"/>
+    <mergeCell ref="N314:N317"/>
+    <mergeCell ref="J310:J313"/>
+    <mergeCell ref="K310:K313"/>
+    <mergeCell ref="N310:N313"/>
+    <mergeCell ref="O310:O313"/>
+    <mergeCell ref="P310:P313"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="F314:F317"/>
+    <mergeCell ref="N322:N323"/>
+    <mergeCell ref="O322:O323"/>
+    <mergeCell ref="P322:P323"/>
+    <mergeCell ref="A324:A327"/>
+    <mergeCell ref="B324:B327"/>
+    <mergeCell ref="C324:C327"/>
+    <mergeCell ref="D324:D327"/>
+    <mergeCell ref="F324:F327"/>
+    <mergeCell ref="G324:G327"/>
+    <mergeCell ref="H324:H327"/>
+    <mergeCell ref="F322:F323"/>
+    <mergeCell ref="G322:G323"/>
+    <mergeCell ref="H322:H323"/>
+    <mergeCell ref="I322:I323"/>
+    <mergeCell ref="J322:J323"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="J318:J321"/>
+    <mergeCell ref="K318:K321"/>
+    <mergeCell ref="N318:N321"/>
+    <mergeCell ref="O318:O321"/>
+    <mergeCell ref="P318:P321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="E322:E323"/>
+    <mergeCell ref="P328:P331"/>
+    <mergeCell ref="H328:H331"/>
+    <mergeCell ref="I328:I331"/>
+    <mergeCell ref="J328:J331"/>
+    <mergeCell ref="K328:K331"/>
+    <mergeCell ref="N328:N331"/>
+    <mergeCell ref="O328:O331"/>
+    <mergeCell ref="A328:A331"/>
+    <mergeCell ref="B328:B331"/>
+    <mergeCell ref="C328:C331"/>
+    <mergeCell ref="D328:D331"/>
+    <mergeCell ref="F328:F331"/>
+    <mergeCell ref="G328:G331"/>
+    <mergeCell ref="I324:I327"/>
+    <mergeCell ref="J324:J327"/>
+    <mergeCell ref="K324:K327"/>
+    <mergeCell ref="N324:N327"/>
+    <mergeCell ref="O324:O327"/>
+    <mergeCell ref="P324:P327"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
